--- a/DB/Lista de movimientos Ultima - copia (2) - copia - copia.xlsx
+++ b/DB/Lista de movimientos Ultima - copia (2) - copia - copia.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Source\Repos\monster Feudal\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oxikr\source\repos\monster-Feudal\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Movimientos" sheetId="5" r:id="rId1"/>
@@ -1792,35 +1792,35 @@
       <selection pane="bottomRight" activeCell="Y343" sqref="Y343"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="62.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="62.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>438</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>370</v>
       </c>
@@ -1970,7 +1970,7 @@
       <c r="X2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>388</v>
       </c>
@@ -2041,7 +2041,7 @@
       <c r="X3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>71</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>512</v>
       </c>
@@ -2185,7 +2185,7 @@
       <c r="X5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>392</v>
       </c>
@@ -2256,7 +2256,7 @@
       <c r="X6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>401</v>
       </c>
@@ -2327,7 +2327,7 @@
       <c r="X7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>453</v>
       </c>
@@ -2398,7 +2398,7 @@
       <c r="X8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>177</v>
       </c>
@@ -2469,7 +2469,7 @@
       <c r="X9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>468</v>
       </c>
@@ -2540,7 +2540,7 @@
       <c r="X10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>11</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="X11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>97</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="X12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>330</v>
       </c>
@@ -2753,7 +2753,7 @@
       <c r="X13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>565</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="X14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>314</v>
       </c>
@@ -2895,7 +2895,7 @@
       <c r="X15" s="3"/>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>555</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>253</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>287</v>
       </c>
@@ -3112,7 +3112,7 @@
       <c r="X18" s="3"/>
       <c r="AC18" s="3"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>419</v>
       </c>
@@ -3183,7 +3183,7 @@
       <c r="X19" s="3"/>
       <c r="AC19" s="3"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>364</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>133</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="X21" s="3"/>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>307</v>
       </c>
@@ -3398,7 +3398,7 @@
       <c r="X22" s="3"/>
       <c r="AC22" s="3"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>501</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>343</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>50</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>312</v>
       </c>
@@ -3690,7 +3690,7 @@
       <c r="X26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>531</v>
       </c>
@@ -3761,7 +3761,7 @@
       <c r="X27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>376</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>52</v>
       </c>
@@ -3907,7 +3907,7 @@
       <c r="X29" s="3"/>
       <c r="AC29" s="3"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>532</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>20</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>143</v>
       </c>
@@ -4126,7 +4126,7 @@
       <c r="X32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>17</v>
       </c>
@@ -4197,7 +4197,7 @@
       <c r="X33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>28</v>
       </c>
@@ -4268,7 +4268,7 @@
       <c r="X34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>31</v>
       </c>
@@ -4339,7 +4339,7 @@
       <c r="X35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>198</v>
       </c>
@@ -4410,7 +4410,7 @@
       <c r="X36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>98</v>
       </c>
@@ -4481,7 +4481,7 @@
       <c r="X37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>21</v>
       </c>
@@ -4552,7 +4552,7 @@
       <c r="X38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>213</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>336</v>
       </c>
@@ -4698,7 +4698,7 @@
       <c r="X40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>157</v>
       </c>
@@ -4769,7 +4769,7 @@
       <c r="X41" s="3"/>
       <c r="AC41" s="3"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>526</v>
       </c>
@@ -4840,7 +4840,7 @@
       <c r="X42" s="3"/>
       <c r="AC42" s="3"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>175</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>142</v>
       </c>
@@ -4986,7 +4986,7 @@
       <c r="X44" s="3"/>
       <c r="AC44" s="3"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>186</v>
       </c>
@@ -5059,7 +5059,7 @@
       <c r="X45" s="3"/>
       <c r="AC45" s="3"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>380</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>189</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>10</v>
       </c>
       <c r="K47" s="3">
-        <f>J47*K46/J46</f>
+        <f t="shared" ref="K47:K78" si="0">J47*K46/J46</f>
         <v>16</v>
       </c>
       <c r="L47" s="3">
@@ -5204,7 +5204,7 @@
       <c r="X47" s="3"/>
       <c r="AC47" s="3"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>247</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>15</v>
       </c>
       <c r="K48" s="3">
-        <f>J48*K47/J47</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="L48" s="3">
@@ -5276,7 +5276,7 @@
       <c r="X48" s="3"/>
       <c r="AC48" s="3"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>486</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>10</v>
       </c>
       <c r="K49" s="3">
-        <f>J49*K48/J48</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="L49" s="3">
@@ -5348,7 +5348,7 @@
       <c r="X49" s="3"/>
       <c r="AC49" s="3"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>426</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>10</v>
       </c>
       <c r="K50" s="3">
-        <f>J50*K49/J49</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="L50" s="3">
@@ -5420,7 +5420,7 @@
       <c r="X50" s="3"/>
       <c r="AC50" s="3"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>402</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>15</v>
       </c>
       <c r="K51" s="3">
-        <f>J51*K50/J50</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="L51" s="3">
@@ -5492,7 +5492,7 @@
       <c r="X51" s="3"/>
       <c r="AC51" s="3"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>121</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>10</v>
       </c>
       <c r="K52" s="3">
-        <f>J52*K51/J51</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="L52" s="3">
@@ -5564,7 +5564,7 @@
       <c r="X52" s="3"/>
       <c r="AC52" s="3"/>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>49</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>20</v>
       </c>
       <c r="K53" s="3">
-        <f>J53*K52/J52</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="L53" s="3">
@@ -5636,7 +5636,7 @@
       <c r="X53" s="3"/>
       <c r="AC53" s="3"/>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>281</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>10</v>
       </c>
       <c r="K54" s="3">
-        <f>J54*K53/J53</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="L54" s="3">
@@ -5710,7 +5710,7 @@
       <c r="X54" s="3"/>
       <c r="AC54" s="3"/>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>372</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>10</v>
       </c>
       <c r="K55" s="3">
-        <f>J55*K54/J54</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="L55" s="3">
@@ -5782,7 +5782,7 @@
       <c r="X55" s="3"/>
       <c r="AC55" s="3"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>145</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>30</v>
       </c>
       <c r="K56" s="3">
-        <f>J56*K55/J55</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="L56" s="3" t="s">
@@ -5854,7 +5854,7 @@
       <c r="X56" s="3"/>
       <c r="AC56" s="3"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>442</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>15</v>
       </c>
       <c r="K57" s="3">
-        <f>J57*K56/J56</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="L57" s="3">
@@ -5926,7 +5926,7 @@
       <c r="X57" s="3"/>
       <c r="AC57" s="3"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>130</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>10</v>
       </c>
       <c r="K58" s="3">
-        <f>J58*K57/J57</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="L58" s="3">
@@ -5998,7 +5998,7 @@
       <c r="X58" s="3"/>
       <c r="AC58" s="3"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>428</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>15</v>
       </c>
       <c r="K59" s="3">
-        <f>J59*K58/J58</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="L59" s="3">
@@ -6070,7 +6070,7 @@
       <c r="X59" s="3"/>
       <c r="AC59" s="3"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>507</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>10</v>
       </c>
       <c r="K60" s="3">
-        <f>J60*K59/J59</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="L60" s="3">
@@ -6142,7 +6142,7 @@
       <c r="X60" s="3"/>
       <c r="AC60" s="3"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>496</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>15</v>
       </c>
       <c r="K61" s="3">
-        <f>J61*K60/J60</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="L61" s="3">
@@ -6214,7 +6214,7 @@
       <c r="X61" s="3"/>
       <c r="AC61" s="3"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>47</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>15</v>
       </c>
       <c r="K62" s="3">
-        <f>J62*K61/J61</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="L62" s="3">
@@ -6288,7 +6288,7 @@
       <c r="X62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>420</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>30</v>
       </c>
       <c r="K63" s="3">
-        <f>J63*K62/J62</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="L63" s="3">
@@ -6360,7 +6360,7 @@
       <c r="X63" s="3"/>
       <c r="AC63" s="3"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>195</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>5</v>
       </c>
       <c r="K64" s="3">
-        <f>J64*K63/J63</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L64" s="3" t="s">
@@ -6434,7 +6434,7 @@
       <c r="X64" s="3"/>
       <c r="AC64" s="3"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>184</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>10</v>
       </c>
       <c r="K65" s="3">
-        <f>J65*K64/J64</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="L65" s="3">
@@ -6506,7 +6506,7 @@
       <c r="X65" s="3"/>
       <c r="AC65" s="3"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>268</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>20</v>
       </c>
       <c r="K66" s="3">
-        <f>J66*K65/J65</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="L66" s="3" t="s">
@@ -6578,7 +6578,7 @@
       <c r="X66" s="3"/>
       <c r="AC66" s="3"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>407</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>10</v>
       </c>
       <c r="K67" s="3">
-        <f>J67*K66/J66</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="L67" s="3">
@@ -6650,7 +6650,7 @@
       <c r="X67" s="3"/>
       <c r="AC67" s="3"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>474</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>10</v>
       </c>
       <c r="K68" s="3">
-        <f>J68*K67/J67</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="L68" s="3">
@@ -6722,7 +6722,7 @@
       <c r="X68" s="3"/>
       <c r="AC68" s="3"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>127</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>15</v>
       </c>
       <c r="K69" s="3">
-        <f>J69*K68/J68</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="L69" s="3">
@@ -6794,7 +6794,7 @@
       <c r="X69" s="3"/>
       <c r="AC69" s="3"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>386</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>5</v>
       </c>
       <c r="K70" s="3">
-        <f>J70*K69/J69</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L70" s="3">
@@ -6866,7 +6866,7 @@
       <c r="X70" s="3"/>
       <c r="AC70" s="3"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>286</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>10</v>
       </c>
       <c r="K71" s="3">
-        <f>J71*K70/J70</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="L71" s="3" t="s">
@@ -6938,7 +6938,7 @@
       <c r="X71" s="3"/>
       <c r="AC71" s="3"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>300</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>15</v>
       </c>
       <c r="K72" s="3">
-        <f>J72*K71/J71</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="L72" s="3" t="s">
@@ -7010,7 +7010,7 @@
       <c r="X72" s="3"/>
       <c r="AC72" s="3"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>103</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>40</v>
       </c>
       <c r="K73" s="3">
-        <f>J73*K72/J72</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="L73" s="3">
@@ -7082,7 +7082,7 @@
       <c r="X73" s="3"/>
       <c r="AC73" s="3"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>209</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>20</v>
       </c>
       <c r="K74" s="3">
-        <f>J74*K73/J73</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="L74" s="3">
@@ -7156,7 +7156,7 @@
       <c r="X74" s="3"/>
       <c r="AC74" s="3"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>435</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>15</v>
       </c>
       <c r="K75" s="3">
-        <f>J75*K74/J74</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="L75" s="3" t="s">
@@ -7230,7 +7230,7 @@
       <c r="X75" s="3"/>
       <c r="AC75" s="3"/>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>681</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>10</v>
       </c>
       <c r="K76" s="3">
-        <f>J76*K75/J75</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="L76" s="3">
@@ -7302,7 +7302,7 @@
       <c r="X76" s="3"/>
       <c r="AC76" s="3"/>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>141</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>10</v>
       </c>
       <c r="K77" s="3">
-        <f>J77*K76/J76</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="L77" s="3">
@@ -7374,7 +7374,7 @@
       <c r="X77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>239</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>20</v>
       </c>
       <c r="K78" s="3">
-        <f>J78*K77/J77</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="L78" s="3" t="s">
@@ -7446,7 +7446,7 @@
       <c r="X78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>536</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>10</v>
       </c>
       <c r="K79" s="3">
-        <f>J79*K78/J78</f>
+        <f t="shared" ref="K79:K110" si="1">J79*K78/J78</f>
         <v>16</v>
       </c>
       <c r="L79" s="3">
@@ -7518,7 +7518,7 @@
       <c r="X79" s="3"/>
       <c r="AC79" s="3"/>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>525</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>10</v>
       </c>
       <c r="K80" s="3">
-        <f>J80*K79/J79</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L80" s="3">
@@ -7590,7 +7590,7 @@
       <c r="X80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>342</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>25</v>
       </c>
       <c r="K81" s="3">
-        <f>J81*K80/J80</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="L81" s="3">
@@ -7664,7 +7664,7 @@
       <c r="X81" s="3"/>
       <c r="AC81" s="3"/>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>423</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>15</v>
       </c>
       <c r="K82" s="3">
-        <f>J82*K81/J81</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="L82" s="3">
@@ -7738,7 +7738,7 @@
       <c r="X82" s="3"/>
       <c r="AC82" s="3"/>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>424</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>15</v>
       </c>
       <c r="K83" s="3">
-        <f>J83*K82/J82</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="L83" s="3">
@@ -7812,7 +7812,7 @@
       <c r="X83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>422</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>15</v>
       </c>
       <c r="K84" s="3">
-        <f>J84*K83/J83</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="L84" s="3">
@@ -7886,7 +7886,7 @@
       <c r="X84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>305</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>15</v>
       </c>
       <c r="K85" s="3">
-        <f>J85*K84/J84</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="L85" s="3">
@@ -7960,7 +7960,7 @@
       <c r="X85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>138</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>15</v>
       </c>
       <c r="K86" s="3">
-        <f>J86*K85/J85</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="L86" s="3">
@@ -8032,7 +8032,7 @@
       <c r="X86" s="3"/>
       <c r="AC86" s="3"/>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <v>434</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>5</v>
       </c>
       <c r="K87" s="3">
-        <f>J87*K86/J86</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="L87" s="3">
@@ -8104,7 +8104,7 @@
       <c r="X87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>534</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>10</v>
       </c>
       <c r="K88" s="3">
-        <f>J88*K87/J87</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L88" s="3">
@@ -8176,7 +8176,7 @@
       <c r="X88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>571</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>20</v>
       </c>
       <c r="K89" s="3">
-        <f>J89*K88/J88</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="L89" s="3">
@@ -8248,7 +8248,7 @@
       <c r="X89" s="3"/>
       <c r="AC89" s="3"/>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <v>93</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>25</v>
       </c>
       <c r="K90" s="3">
-        <f>J90*K89/J89</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="L90" s="3">
@@ -8322,7 +8322,7 @@
       <c r="X90" s="3"/>
       <c r="AC90" s="3"/>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <v>35</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>20</v>
       </c>
       <c r="K91" s="3">
-        <f>J91*K90/J90</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="L91" s="3">
@@ -8396,7 +8396,7 @@
       <c r="X91" s="3"/>
       <c r="AC91" s="3"/>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <v>207</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>15</v>
       </c>
       <c r="K92" s="3">
-        <f>J92*K91/J91</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="L92" s="3">
@@ -8470,7 +8470,7 @@
       <c r="X92" s="3"/>
       <c r="AC92" s="3"/>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <v>68</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>20</v>
       </c>
       <c r="K93" s="3">
-        <f>J93*K92/J92</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="L93" s="3" t="s">
@@ -8542,7 +8542,7 @@
       <c r="X93" s="3"/>
       <c r="AC93" s="3"/>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <v>30</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>25</v>
       </c>
       <c r="K94" s="3">
-        <f>J94*K93/J93</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="L94" s="3">
@@ -8614,7 +8614,7 @@
       <c r="X94" s="3"/>
       <c r="AC94" s="3"/>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <v>339</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>20</v>
       </c>
       <c r="K95" s="3">
-        <f>J95*K94/J94</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="L95" s="3" t="s">
@@ -8686,7 +8686,7 @@
       <c r="X95" s="3"/>
       <c r="AC95" s="3"/>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <v>210</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>20</v>
       </c>
       <c r="K96" s="3">
-        <f>J96*K95/J95</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="L96" s="3">
@@ -8758,7 +8758,7 @@
       <c r="X96" s="3"/>
       <c r="AC96" s="3"/>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>460</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>5</v>
       </c>
       <c r="K97" s="3">
-        <f>J97*K96/J96</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="L97" s="3">
@@ -8830,7 +8830,7 @@
       <c r="X97" s="3"/>
       <c r="AC97" s="3"/>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <v>321</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>20</v>
       </c>
       <c r="K98" s="3">
-        <f>J98*K97/J97</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="L98" s="3">
@@ -8902,7 +8902,7 @@
       <c r="X98" s="3"/>
       <c r="AC98" s="3"/>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
         <v>163</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>20</v>
       </c>
       <c r="K99" s="3">
-        <f>J99*K98/J98</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="L99" s="3">
@@ -8974,7 +8974,7 @@
       <c r="X99" s="3"/>
       <c r="AC99" s="3"/>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <v>684</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>10</v>
       </c>
       <c r="K100" s="3">
-        <f>J100*K99/J99</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L100" s="3">
@@ -9046,7 +9046,7 @@
       <c r="X100" s="3"/>
       <c r="AC100" s="3"/>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <v>484</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>10</v>
       </c>
       <c r="K101" s="3">
-        <f>J101*K100/J100</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L101" s="3">
@@ -9118,7 +9118,7 @@
       <c r="X101" s="3"/>
       <c r="AC101" s="3"/>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <v>298</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>20</v>
       </c>
       <c r="K102" s="3">
-        <f>J102*K101/J101</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="L102" s="3" t="s">
@@ -9192,7 +9192,7 @@
       <c r="X102" s="3"/>
       <c r="AC102" s="3"/>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <v>686</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>15</v>
       </c>
       <c r="K103" s="3">
-        <f>J103*K102/J102</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="L103" s="3">
@@ -9264,7 +9264,7 @@
       <c r="X103" s="3"/>
       <c r="AC103" s="3"/>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <v>349</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>20</v>
       </c>
       <c r="K104" s="3">
-        <f>J104*K103/J103</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="L104" s="3" t="s">
@@ -9336,7 +9336,7 @@
       <c r="X104" s="3"/>
       <c r="AC104" s="3"/>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <v>14</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>20</v>
       </c>
       <c r="K105" s="3">
-        <f>J105*K104/J104</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="L105" s="3" t="s">
@@ -9408,7 +9408,7 @@
       <c r="X105" s="3"/>
       <c r="AC105" s="3"/>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <v>240</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>5</v>
       </c>
       <c r="K106" s="3">
-        <f>J106*K105/J105</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="L106" s="3" t="s">
@@ -9480,7 +9480,7 @@
       <c r="X106" s="3"/>
       <c r="AC106" s="3"/>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <v>80</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>10</v>
       </c>
       <c r="K107" s="3">
-        <f>J107*K106/J106</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L107" s="3" t="s">
@@ -9552,7 +9552,7 @@
       <c r="X107" s="3"/>
       <c r="AC107" s="3"/>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <v>297</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>15</v>
       </c>
       <c r="K108" s="3">
-        <f>J108*K107/J107</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="L108" s="3">
@@ -9624,7 +9624,7 @@
       <c r="X108" s="3"/>
       <c r="AC108" s="3"/>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <v>334</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>15</v>
       </c>
       <c r="K109" s="3">
-        <f>J109*K108/J108</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="L109" s="3" t="s">
@@ -9696,7 +9696,7 @@
       <c r="X109" s="3"/>
       <c r="AC109" s="3"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <v>280</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>15</v>
       </c>
       <c r="K110" s="3">
-        <f>J110*K109/J109</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="L110" s="3">
@@ -9768,7 +9768,7 @@
       <c r="X110" s="3"/>
       <c r="AC110" s="3"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <v>36</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>20</v>
       </c>
       <c r="K111" s="3">
-        <f>J111*K110/J110</f>
+        <f t="shared" ref="K111:K142" si="2">J111*K110/J110</f>
         <v>32</v>
       </c>
       <c r="L111" s="3">
@@ -9840,7 +9840,7 @@
       <c r="X111" s="3"/>
       <c r="AC111" s="3"/>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <v>282</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>20</v>
       </c>
       <c r="K112" s="3">
-        <f>J112*K111/J111</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="L112" s="3">
@@ -9912,7 +9912,7 @@
       <c r="X112" s="3"/>
       <c r="AC112" s="3"/>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <v>156</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>10</v>
       </c>
       <c r="K113" s="3">
-        <f>J113*K112/J112</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="L113" s="3" t="s">
@@ -9984,7 +9984,7 @@
       <c r="X113" s="3"/>
       <c r="AC113" s="3"/>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <v>205</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>20</v>
       </c>
       <c r="K114" s="3">
-        <f>J114*K113/J113</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="L114" s="3">
@@ -10056,7 +10056,7 @@
       <c r="X114" s="3"/>
       <c r="AC114" s="3"/>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <v>137</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>30</v>
       </c>
       <c r="K115" s="3">
-        <f>J115*K114/J114</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="L115" s="3">
@@ -10130,7 +10130,7 @@
       <c r="X115" s="3"/>
       <c r="AC115" s="3"/>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <v>279</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>10</v>
       </c>
       <c r="K116" s="3">
-        <f>J116*K115/J115</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="L116" s="3">
@@ -10202,7 +10202,7 @@
       <c r="X116" s="3"/>
       <c r="AC116" s="3"/>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <v>6</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>20</v>
       </c>
       <c r="K117" s="3">
-        <f>J117*K116/J116</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="L117" s="3">
@@ -10274,7 +10274,7 @@
       <c r="X117" s="3"/>
       <c r="AC117" s="3"/>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <v>241</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>5</v>
       </c>
       <c r="K118" s="3">
-        <f>J118*K117/J117</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="L118" s="3" t="s">
@@ -10346,7 +10346,7 @@
       <c r="X118" s="3"/>
       <c r="AC118" s="3"/>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <v>81</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>40</v>
       </c>
       <c r="K119" s="3">
-        <f>J119*K118/J118</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="L119" s="3" t="s">
@@ -10418,7 +10418,7 @@
       <c r="X119" s="3"/>
       <c r="AC119" s="3"/>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <v>341</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>15</v>
       </c>
       <c r="K120" s="3">
-        <f>J120*K119/J119</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="L120" s="3">
@@ -10490,7 +10490,7 @@
       <c r="X120" s="3"/>
       <c r="AC120" s="3"/>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <v>459</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>5</v>
       </c>
       <c r="K121" s="3">
-        <f>J121*K120/J120</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="L121" s="3">
@@ -10562,7 +10562,7 @@
       <c r="X121" s="3"/>
       <c r="AC121" s="3"/>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <v>220</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>20</v>
       </c>
       <c r="K122" s="3">
-        <f>J122*K121/J121</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="L122" s="3">
@@ -10634,7 +10634,7 @@
       <c r="X122" s="3"/>
       <c r="AC122" s="3"/>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <v>38</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>15</v>
       </c>
       <c r="K123" s="3">
-        <f>J123*K122/J122</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="L123" s="3">
@@ -10706,7 +10706,7 @@
       <c r="X123" s="3"/>
       <c r="AC123" s="3"/>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <v>458</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>10</v>
       </c>
       <c r="K124" s="3">
-        <f>J124*K123/J123</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="L124" s="3">
@@ -10778,7 +10778,7 @@
       <c r="X124" s="3"/>
       <c r="AC124" s="3"/>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <v>24</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>30</v>
       </c>
       <c r="K125" s="3">
-        <f>J125*K124/J124</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="L125" s="3">
@@ -10850,7 +10850,7 @@
       <c r="X125" s="3"/>
       <c r="AC125" s="3"/>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <v>225</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>20</v>
       </c>
       <c r="K126" s="3">
-        <f>J126*K125/J125</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="L126" s="3">
@@ -10924,7 +10924,7 @@
       <c r="X126" s="3"/>
       <c r="AC126" s="3"/>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <v>73</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>10</v>
       </c>
       <c r="K127" s="3">
-        <f>J127*K126/J126</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="L127" s="3">
@@ -10998,7 +10998,7 @@
       <c r="X127" s="3"/>
       <c r="AC127" s="3"/>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <v>230</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>20</v>
       </c>
       <c r="K128" s="3">
-        <f>J128*K127/J127</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="L128" s="3" t="s">
@@ -11070,7 +11070,7 @@
       <c r="X128" s="3"/>
       <c r="AC128" s="3"/>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <v>497</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>15</v>
       </c>
       <c r="K129" s="3">
-        <f>J129*K128/J128</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="L129" s="3">
@@ -11142,7 +11142,7 @@
       <c r="X129" s="3"/>
       <c r="AC129" s="3"/>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <v>192</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>5</v>
       </c>
       <c r="K130" s="3">
-        <f>J130*K129/J129</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="L130" s="3">
@@ -11216,7 +11216,7 @@
       <c r="X130" s="3"/>
       <c r="AC130" s="3"/>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <v>373</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>15</v>
       </c>
       <c r="K131" s="3">
-        <f>J131*K130/J130</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="L131" s="3">
@@ -11290,7 +11290,7 @@
       <c r="X131" s="3"/>
       <c r="AC131" s="3"/>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <v>292</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>20</v>
       </c>
       <c r="K132" s="3">
-        <f>J132*K131/J131</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="L132" s="3">
@@ -11362,7 +11362,7 @@
       <c r="X132" s="3"/>
       <c r="AC132" s="3"/>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
         <v>204</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>20</v>
       </c>
       <c r="K133" s="3">
-        <f>J133*K132/J132</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="L133" s="3">
@@ -11434,7 +11434,7 @@
       <c r="X133" s="3"/>
       <c r="AC133" s="3"/>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
         <v>412</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>10</v>
       </c>
       <c r="K134" s="3">
-        <f>J134*K133/J133</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="L134" s="3">
@@ -11506,7 +11506,7 @@
       <c r="X134" s="3"/>
       <c r="AC134" s="3"/>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
         <v>200</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>10</v>
       </c>
       <c r="K135" s="3">
-        <f>J135*K134/J134</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="L135" s="3" t="s">
@@ -11578,7 +11578,7 @@
       <c r="X135" s="3"/>
       <c r="AC135" s="3"/>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
         <v>489</v>
       </c>
@@ -11608,7 +11608,7 @@
         <v>20</v>
       </c>
       <c r="K136" s="3">
-        <f>J136*K135/J135</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="L136" s="3" t="s">
@@ -11650,7 +11650,7 @@
       <c r="X136" s="3"/>
       <c r="AC136" s="3"/>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
         <v>394</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>15</v>
       </c>
       <c r="K137" s="3">
-        <f>J137*K136/J136</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="L137" s="3">
@@ -11724,7 +11724,7 @@
       <c r="X137" s="3"/>
       <c r="AC137" s="3"/>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A138" s="11">
         <v>503</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>15</v>
       </c>
       <c r="K138" s="3">
-        <f>J138*K137/J137</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="L138" s="3">
@@ -11798,7 +11798,7 @@
       <c r="X138" s="3"/>
       <c r="AC138" s="3"/>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A139" s="11">
         <v>255</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>10</v>
       </c>
       <c r="K139" s="3">
-        <f>J139*K138/J138</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="L139" s="3">
@@ -11870,7 +11870,7 @@
       <c r="X139" s="3"/>
       <c r="AC139" s="3"/>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140" s="11">
         <v>396</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>20</v>
       </c>
       <c r="K140" s="3">
-        <f>J140*K139/J139</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="L140" s="3">
@@ -11942,7 +11942,7 @@
       <c r="X140" s="3"/>
       <c r="AC140" s="3"/>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141" s="11">
         <v>283</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>5</v>
       </c>
       <c r="K141" s="3">
-        <f>J141*K140/J140</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="L141" s="3">
@@ -12014,7 +12014,7 @@
       <c r="X141" s="3"/>
       <c r="AC141" s="3"/>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142" s="11">
         <v>358</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>10</v>
       </c>
       <c r="K142" s="3">
-        <f>J142*K141/J141</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="L142" s="3">
@@ -12086,7 +12086,7 @@
       <c r="X142" s="3"/>
       <c r="AC142" s="3"/>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="11">
         <v>433</v>
       </c>
@@ -12116,7 +12116,7 @@
         <v>5</v>
       </c>
       <c r="K143" s="3">
-        <f>J143*K142/J142</f>
+        <f t="shared" ref="K143:K151" si="3">J143*K142/J142</f>
         <v>8</v>
       </c>
       <c r="L143" s="3" t="s">
@@ -12158,7 +12158,7 @@
       <c r="X143" s="3"/>
       <c r="AC143" s="3"/>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="11">
         <v>533</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>15</v>
       </c>
       <c r="K144" s="3">
-        <f>J144*K143/J143</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="L144" s="3">
@@ -12230,7 +12230,7 @@
       <c r="X144" s="3"/>
       <c r="AC144" s="3"/>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145" s="11">
         <v>284</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>5</v>
       </c>
       <c r="K145" s="3">
-        <f>J145*K144/J144</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="L145" s="3" t="s">
@@ -12302,7 +12302,7 @@
       <c r="X145" s="3"/>
       <c r="AC145" s="3"/>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146" s="11">
         <v>586</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>10</v>
       </c>
       <c r="K146" s="3">
-        <f>J146*K145/J145</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="L146" s="3" t="s">
@@ -12374,7 +12374,7 @@
       <c r="X146" s="3"/>
       <c r="AC146" s="3"/>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A147" s="11">
         <v>378</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>5</v>
       </c>
       <c r="K147" s="3">
-        <f>J147*K146/J146</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="L147" s="3">
@@ -12446,7 +12446,7 @@
       <c r="X147" s="3"/>
       <c r="AC147" s="3"/>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A148" s="11">
         <v>91</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>10</v>
       </c>
       <c r="K148" s="3">
-        <f>J148*K147/J147</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="L148" s="3">
@@ -12518,7 +12518,7 @@
       <c r="X148" s="3"/>
       <c r="AC148" s="3"/>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149" s="11">
         <v>153</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>5</v>
       </c>
       <c r="K149" s="3">
-        <f>J149*K148/J148</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="L149" s="3" t="s">
@@ -12590,7 +12590,7 @@
       <c r="X149" s="3"/>
       <c r="AC149" s="3"/>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150" s="11">
         <v>206</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>40</v>
       </c>
       <c r="K150" s="3">
-        <f>J150*K149/J149</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="L150" s="3">
@@ -12662,7 +12662,7 @@
       <c r="X150" s="3"/>
       <c r="AC150" s="3"/>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151" s="11">
         <v>563</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>10</v>
       </c>
       <c r="K151" s="3">
-        <f>J151*K150/J150</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="L151" s="3" t="s">
@@ -12734,7 +12734,7 @@
       <c r="X151" s="3"/>
       <c r="AC151" s="3"/>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>710</v>
       </c>
@@ -12805,7 +12805,7 @@
       <c r="X152" s="3"/>
       <c r="AC152" s="3"/>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153" s="11">
         <v>185</v>
       </c>
@@ -12876,7 +12876,7 @@
       <c r="X153" s="3"/>
       <c r="AC153" s="3"/>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154" s="11">
         <v>116</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>30</v>
       </c>
       <c r="K154" s="3">
-        <f>J154*K153/J153</f>
+        <f t="shared" ref="K154:K185" si="4">J154*K153/J153</f>
         <v>48</v>
       </c>
       <c r="L154" s="3" t="s">
@@ -12948,7 +12948,7 @@
       <c r="X154" s="3"/>
       <c r="AC154" s="3"/>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A155" s="11">
         <v>430</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>10</v>
       </c>
       <c r="K155" s="3">
-        <f>J155*K154/J154</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="L155" s="3">
@@ -13020,7 +13020,7 @@
       <c r="X155" s="3"/>
       <c r="AC155" s="3"/>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156" s="11">
         <v>670</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>40</v>
       </c>
       <c r="K156" s="3">
-        <f>J156*K155/J155</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="L156" s="3">
@@ -13092,7 +13092,7 @@
       <c r="X156" s="3"/>
       <c r="AC156" s="3"/>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157" s="11">
         <v>165</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>1</v>
       </c>
       <c r="K157" s="3">
-        <f>J157*K156/J156</f>
+        <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
       <c r="L157" s="3" t="s">
@@ -13164,7 +13164,7 @@
       <c r="X157" s="3"/>
       <c r="AC157" s="3"/>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158" s="11">
         <v>106</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>30</v>
       </c>
       <c r="K158" s="3">
-        <f>J158*K157/J157</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="L158" s="3" t="s">
@@ -13236,7 +13236,7 @@
       <c r="X158" s="3"/>
       <c r="AC158" s="3"/>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159" s="11">
         <v>218</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>20</v>
       </c>
       <c r="K159" s="3">
-        <f>J159*K158/J158</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="L159" s="3">
@@ -13308,7 +13308,7 @@
       <c r="X159" s="3"/>
       <c r="AC159" s="3"/>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160" s="11">
         <v>261</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>15</v>
       </c>
       <c r="K160" s="3">
-        <f>J160*K159/J159</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="L160" s="3">
@@ -13382,7 +13382,7 @@
       <c r="X160" s="3"/>
       <c r="AC160" s="3"/>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161" s="11">
         <v>221</v>
       </c>
@@ -13414,7 +13414,7 @@
         <v>5</v>
       </c>
       <c r="K161" s="3">
-        <f>J161*K160/J160</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="L161" s="3">
@@ -13456,7 +13456,7 @@
       <c r="X161" s="3"/>
       <c r="AC161" s="3"/>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162" s="11">
         <v>276</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>5</v>
       </c>
       <c r="K162" s="3">
-        <f>J162*K161/J161</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="L162" s="3">
@@ -13528,7 +13528,7 @@
       <c r="X162" s="3"/>
       <c r="AC162" s="3"/>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163" s="11">
         <v>31</v>
       </c>
@@ -13558,7 +13558,7 @@
         <v>20</v>
       </c>
       <c r="K163" s="3">
-        <f>J163*K162/J162</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="L163" s="3">
@@ -13600,7 +13600,7 @@
       <c r="X163" s="3"/>
       <c r="AC163" s="3"/>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" s="11">
         <v>82</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>10</v>
       </c>
       <c r="K164" s="3">
-        <f>J164*K163/J163</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="L164" s="3">
@@ -13672,7 +13672,7 @@
       <c r="X164" s="3"/>
       <c r="AC164" s="3"/>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165" s="11">
         <v>327</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>15</v>
       </c>
       <c r="K165" s="3">
-        <f>J165*K164/J164</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="L165" s="3">
@@ -13744,7 +13744,7 @@
       <c r="X165" s="3"/>
       <c r="AC165" s="3"/>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" s="11">
         <v>306</v>
       </c>
@@ -13774,7 +13774,7 @@
         <v>10</v>
       </c>
       <c r="K166" s="3">
-        <f>J166*K165/J165</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="L166" s="3">
@@ -13816,7 +13816,7 @@
       <c r="X166" s="3"/>
       <c r="AC166" s="3"/>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" s="11">
         <v>337</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>15</v>
       </c>
       <c r="K167" s="3">
-        <f>J167*K166/J166</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="L167" s="3">
@@ -13888,7 +13888,7 @@
       <c r="X167" s="3"/>
       <c r="AC167" s="3"/>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168" s="11">
         <v>232</v>
       </c>
@@ -13918,7 +13918,7 @@
         <v>35</v>
       </c>
       <c r="K168" s="3">
-        <f>J168*K167/J167</f>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="L168" s="3">
@@ -13960,7 +13960,7 @@
       <c r="X168" s="3"/>
       <c r="AC168" s="3"/>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169" s="11">
         <v>421</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>15</v>
       </c>
       <c r="K169" s="3">
-        <f>J169*K168/J168</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="L169" s="3">
@@ -14032,7 +14032,7 @@
       <c r="X169" s="3"/>
       <c r="AC169" s="3"/>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170" s="11">
         <v>139</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>40</v>
       </c>
       <c r="K170" s="3">
-        <f>J170*K169/J169</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="L170" s="3" t="s">
@@ -14106,7 +14106,7 @@
       <c r="X170" s="3"/>
       <c r="AC170" s="3"/>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171" s="11">
         <v>416</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>5</v>
       </c>
       <c r="K171" s="3">
-        <f>J171*K170/J170</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="L171" s="3">
@@ -14178,7 +14178,7 @@
       <c r="X171" s="3"/>
       <c r="AC171" s="3"/>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" s="11">
         <v>360</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>5</v>
       </c>
       <c r="K172" s="3">
-        <f>J172*K171/J171</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="L172" s="3">
@@ -14250,7 +14250,7 @@
       <c r="X172" s="3"/>
       <c r="AC172" s="3"/>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" s="11">
         <v>83</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>15</v>
       </c>
       <c r="K173" s="3">
-        <f>J173*K172/J172</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="L173" s="3">
@@ -14324,7 +14324,7 @@
       <c r="X173" s="3"/>
       <c r="AC173" s="3"/>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174" s="11">
         <v>693</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>20</v>
       </c>
       <c r="K174" s="3">
-        <f>J174*K173/J173</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="L174" s="3" t="s">
@@ -14396,7 +14396,7 @@
       <c r="X174" s="3"/>
       <c r="AC174" s="3"/>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" s="11">
         <v>37</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>10</v>
       </c>
       <c r="K175" s="3">
-        <f>J175*K174/J174</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="L175" s="3" t="s">
@@ -14468,7 +14468,7 @@
       <c r="X175" s="3"/>
       <c r="AC175" s="3"/>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" s="11">
         <v>332</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>20</v>
       </c>
       <c r="K176" s="3">
-        <f>J176*K175/J175</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="L176" s="3">
@@ -14540,7 +14540,7 @@
       <c r="X176" s="3"/>
       <c r="AC176" s="3"/>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A177" s="11">
         <v>389</v>
       </c>
@@ -14570,7 +14570,7 @@
         <v>5</v>
       </c>
       <c r="K177" s="3">
-        <f>J177*K176/J176</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="L177" s="3">
@@ -14612,7 +14612,7 @@
       <c r="X177" s="3"/>
       <c r="AC177" s="3"/>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A178" s="11">
         <v>530</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>15</v>
       </c>
       <c r="K178" s="3">
-        <f>J178*K177/J177</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="L178" s="3">
@@ -14684,7 +14684,7 @@
       <c r="X178" s="3"/>
       <c r="AC178" s="3"/>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A179" s="11">
         <v>29</v>
       </c>
@@ -14714,7 +14714,7 @@
         <v>15</v>
       </c>
       <c r="K179" s="3">
-        <f>J179*K178/J178</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="L179" s="3">
@@ -14756,7 +14756,7 @@
       <c r="X179" s="3"/>
       <c r="AC179" s="3"/>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A180" s="11">
         <v>34</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>15</v>
       </c>
       <c r="K180" s="3">
-        <f>J180*K179/J179</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="L180" s="3">
@@ -14830,7 +14830,7 @@
       <c r="X180" s="3"/>
       <c r="AC180" s="3"/>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A181" s="11">
         <v>566</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>10</v>
       </c>
       <c r="K181" s="3">
-        <f>J181*K180/J180</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="L181" s="3">
@@ -14902,7 +14902,7 @@
       <c r="X181" s="3"/>
       <c r="AC181" s="3"/>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A182" s="11">
         <v>2</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>25</v>
       </c>
       <c r="K182" s="3">
-        <f>J182*K181/J181</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="L182" s="3">
@@ -14974,7 +14974,7 @@
       <c r="X182" s="3"/>
       <c r="AC182" s="3"/>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A183" s="11">
         <v>675</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>15</v>
       </c>
       <c r="K183" s="3">
-        <f>J183*K182/J182</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="L183" s="3">
@@ -15048,7 +15048,7 @@
       <c r="X183" s="3"/>
       <c r="AC183" s="3"/>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A184" s="11">
         <v>154</v>
       </c>
@@ -15078,7 +15078,7 @@
         <v>15</v>
       </c>
       <c r="K184" s="3">
-        <f>J184*K183/J183</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="L184" s="3">
@@ -15120,7 +15120,7 @@
       <c r="X184" s="3"/>
       <c r="AC184" s="3"/>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A185" s="11">
         <v>357</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>40</v>
       </c>
       <c r="K185" s="3">
-        <f>J185*K184/J184</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="L185" s="3">
@@ -15194,7 +15194,7 @@
       <c r="X185" s="3"/>
       <c r="AC185" s="3"/>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A186" s="11">
         <v>258</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>10</v>
       </c>
       <c r="K186" s="3">
-        <f>J186*K185/J185</f>
+        <f t="shared" ref="K186:K217" si="5">J186*K185/J185</f>
         <v>16</v>
       </c>
       <c r="L186" s="3" t="s">
@@ -15266,7 +15266,7 @@
       <c r="X186" s="3"/>
       <c r="AC186" s="3"/>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A187" s="11">
         <v>356</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>5</v>
       </c>
       <c r="K187" s="3">
-        <f>J187*K186/J186</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="L187" s="3" t="s">
@@ -15338,7 +15338,7 @@
       <c r="X187" s="3"/>
       <c r="AC187" s="3"/>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A188" s="11">
         <v>45</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>40</v>
       </c>
       <c r="K188" s="3">
-        <f>J188*K187/J187</f>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="L188" s="3" t="s">
@@ -15410,7 +15410,7 @@
       <c r="X188" s="3"/>
       <c r="AC188" s="3"/>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A189" s="11">
         <v>498</v>
       </c>
@@ -15440,7 +15440,7 @@
         <v>20</v>
       </c>
       <c r="K189" s="3">
-        <f>J189*K188/J188</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="L189" s="3">
@@ -15482,7 +15482,7 @@
       <c r="X189" s="3"/>
       <c r="AC189" s="3"/>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A190" s="11">
         <v>710</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>10</v>
       </c>
       <c r="K190" s="3">
-        <f>J190*K189/J189</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="L190" s="3">
@@ -15554,7 +15554,7 @@
       <c r="X190" s="3"/>
       <c r="AC190" s="3"/>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A191" s="11">
         <v>56</v>
       </c>
@@ -15584,7 +15584,7 @@
         <v>5</v>
       </c>
       <c r="K191" s="3">
-        <f>J191*K190/J190</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="L191" s="3">
@@ -15626,7 +15626,7 @@
       <c r="X191" s="3"/>
       <c r="AC191" s="3"/>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A192" s="11">
         <v>308</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>5</v>
       </c>
       <c r="K192" s="3">
-        <f>J192*K191/J191</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="L192" s="3">
@@ -15698,7 +15698,7 @@
       <c r="X192" s="3"/>
       <c r="AC192" s="3"/>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A193" s="11">
         <v>346</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>15</v>
       </c>
       <c r="K193" s="3">
-        <f>J193*K192/J192</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="L193" s="3" t="s">
@@ -15770,7 +15770,7 @@
       <c r="X193" s="3"/>
       <c r="AC193" s="3"/>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A194" s="11">
         <v>352</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>20</v>
       </c>
       <c r="K194" s="3">
-        <f>J194*K193/J193</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="L194" s="3">
@@ -15844,7 +15844,7 @@
       <c r="X194" s="3"/>
       <c r="AC194" s="3"/>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A195" s="11">
         <v>672</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>20</v>
       </c>
       <c r="K195" s="3">
-        <f>J195*K194/J194</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="L195" s="3">
@@ -15918,7 +15918,7 @@
       <c r="X195" s="3"/>
       <c r="AC195" s="3"/>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A196" s="11">
         <v>63</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>5</v>
       </c>
       <c r="K196" s="3">
-        <f>J196*K195/J195</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="L196" s="3">
@@ -15990,7 +15990,7 @@
       <c r="X196" s="3"/>
       <c r="AC196" s="3"/>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A197" s="11">
         <v>95</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>20</v>
       </c>
       <c r="K197" s="3">
-        <f>J197*K196/J196</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="L197" s="3">
@@ -16064,7 +16064,7 @@
       <c r="X197" s="3"/>
       <c r="AC197" s="3"/>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A198" s="11">
         <v>75</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>25</v>
       </c>
       <c r="K198" s="3">
-        <f>J198*K197/J197</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="L198" s="3" t="s">
@@ -16136,7 +16136,7 @@
       <c r="X198" s="3"/>
       <c r="AC198" s="3"/>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A199" s="11">
         <v>348</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>15</v>
       </c>
       <c r="K199" s="3">
-        <f>J199*K198/J198</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="L199" s="3">
@@ -16208,7 +16208,7 @@
       <c r="X199" s="3"/>
       <c r="AC199" s="3"/>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A200" s="11">
         <v>345</v>
       </c>
@@ -16238,7 +16238,7 @@
         <v>20</v>
       </c>
       <c r="K200" s="3">
-        <f>J200*K199/J199</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="L200" s="3">
@@ -16280,7 +16280,7 @@
       <c r="X200" s="3"/>
       <c r="AC200" s="3"/>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A201" s="11">
         <v>708</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>10</v>
       </c>
       <c r="K201" s="3">
-        <f>J201*K200/J200</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="L201" s="3">
@@ -16352,7 +16352,7 @@
       <c r="X201" s="3"/>
       <c r="AC201" s="3"/>
     </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A202" s="11">
         <v>436</v>
       </c>
@@ -16384,7 +16384,7 @@
         <v>15</v>
       </c>
       <c r="K202" s="3">
-        <f>J202*K201/J201</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="L202" s="3" t="s">
@@ -16426,7 +16426,7 @@
       <c r="X202" s="3"/>
       <c r="AC202" s="3"/>
     </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A203" s="11">
         <v>369</v>
       </c>
@@ -16456,7 +16456,7 @@
         <v>20</v>
       </c>
       <c r="K203" s="3">
-        <f>J203*K202/J202</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="L203" s="3">
@@ -16498,7 +16498,7 @@
       <c r="X203" s="3"/>
       <c r="AC203" s="3"/>
     </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A204" s="11">
         <v>272</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>10</v>
       </c>
       <c r="K204" s="3">
-        <f>J204*K203/J203</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="L204" s="3">
@@ -16570,7 +16570,7 @@
       <c r="X204" s="3"/>
       <c r="AC204" s="3"/>
     </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A205" s="11">
         <v>84</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>30</v>
       </c>
       <c r="K205" s="3">
-        <f>J205*K204/J204</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="L205" s="3">
@@ -16644,7 +16644,7 @@
       <c r="X205" s="3"/>
       <c r="AC205" s="3"/>
     </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A206" s="11">
         <v>310</v>
       </c>
@@ -16674,7 +16674,7 @@
         <v>15</v>
       </c>
       <c r="K206" s="3">
-        <f>J206*K205/J205</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="L206" s="3">
@@ -16716,7 +16716,7 @@
       <c r="X206" s="3"/>
       <c r="AC206" s="3"/>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A207" s="11">
         <v>517</v>
       </c>
@@ -16748,7 +16748,7 @@
         <v>5</v>
       </c>
       <c r="K207" s="3">
-        <f>J207*K206/J206</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="L207" s="3">
@@ -16790,7 +16790,7 @@
       <c r="X207" s="3"/>
       <c r="AC207" s="3"/>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A208" s="11">
         <v>506</v>
       </c>
@@ -16820,7 +16820,7 @@
         <v>10</v>
       </c>
       <c r="K208" s="3">
-        <f>J208*K207/J207</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="L208" s="3">
@@ -16862,7 +16862,7 @@
       <c r="X208" s="3"/>
       <c r="AC208" s="3"/>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A209" s="11">
         <v>179</v>
       </c>
@@ -16892,7 +16892,7 @@
         <v>15</v>
       </c>
       <c r="K209" s="3">
-        <f>J209*K208/J208</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="L209" s="3">
@@ -16934,7 +16934,7 @@
       <c r="X209" s="3"/>
       <c r="AC209" s="3"/>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A210" s="11">
         <v>408</v>
       </c>
@@ -16964,7 +16964,7 @@
         <v>20</v>
       </c>
       <c r="K210" s="3">
-        <f>J210*K209/J209</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="L210" s="3">
@@ -17006,7 +17006,7 @@
       <c r="X210" s="3"/>
       <c r="AC210" s="3"/>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A211" s="11">
         <v>492</v>
       </c>
@@ -17036,7 +17036,7 @@
         <v>15</v>
       </c>
       <c r="K211" s="3">
-        <f>J211*K210/J210</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="L211" s="3">
@@ -17078,7 +17078,7 @@
       <c r="X211" s="3"/>
       <c r="AC211" s="3"/>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A212" s="11">
         <v>168</v>
       </c>
@@ -17108,7 +17108,7 @@
         <v>25</v>
       </c>
       <c r="K212" s="3">
-        <f>J212*K211/J211</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="L212" s="3">
@@ -17150,7 +17150,7 @@
       <c r="X212" s="3"/>
       <c r="AC212" s="3"/>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A213" s="11">
         <v>53</v>
       </c>
@@ -17182,7 +17182,7 @@
         <v>15</v>
       </c>
       <c r="K213" s="3">
-        <f>J213*K212/J212</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="L213" s="3">
@@ -17224,7 +17224,7 @@
       <c r="X213" s="3"/>
       <c r="AC213" s="3"/>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A214" s="11">
         <v>438</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>10</v>
       </c>
       <c r="K214" s="3">
-        <f>J214*K213/J213</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="L214" s="3">
@@ -17296,7 +17296,7 @@
       <c r="X214" s="3"/>
       <c r="AC214" s="3"/>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A215" s="11">
         <v>122</v>
       </c>
@@ -17328,7 +17328,7 @@
         <v>30</v>
       </c>
       <c r="K215" s="3">
-        <f>J215*K214/J214</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="L215" s="3">
@@ -17370,7 +17370,7 @@
       <c r="X215" s="3"/>
       <c r="AC215" s="3"/>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A216" s="11">
         <v>393</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>10</v>
       </c>
       <c r="K216" s="3">
-        <f>J216*K215/J215</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="L216" s="3" t="s">
@@ -17442,7 +17442,7 @@
       <c r="X216" s="3"/>
       <c r="AC216" s="3"/>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A217" s="11">
         <v>573</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>20</v>
       </c>
       <c r="K217" s="3">
-        <f>J217*K216/J216</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="L217" s="3">
@@ -17516,7 +17516,7 @@
       <c r="X217" s="3"/>
       <c r="AC217" s="3"/>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>682</v>
       </c>
@@ -17546,7 +17546,7 @@
         <v>5</v>
       </c>
       <c r="K218" s="3">
-        <f>J218*K217/J217</f>
+        <f t="shared" ref="K218:K249" si="6">J218*K217/J217</f>
         <v>8</v>
       </c>
       <c r="L218" s="3">
@@ -17588,7 +17588,7 @@
       <c r="X218" s="3"/>
       <c r="AC218" s="3"/>
     </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A219" s="11">
         <v>595</v>
       </c>
@@ -17618,7 +17618,7 @@
         <v>10</v>
       </c>
       <c r="K219" s="3">
-        <f>J219*K218/J218</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="L219" s="3">
@@ -17660,7 +17660,7 @@
       <c r="X219" s="3"/>
       <c r="AC219" s="3"/>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A220" s="11">
         <v>126</v>
       </c>
@@ -17692,7 +17692,7 @@
         <v>5</v>
       </c>
       <c r="K220" s="3">
-        <f>J220*K219/J219</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="L220" s="3">
@@ -17734,7 +17734,7 @@
       <c r="X220" s="3"/>
       <c r="AC220" s="3"/>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A221" s="11">
         <v>313</v>
       </c>
@@ -17764,7 +17764,7 @@
         <v>20</v>
       </c>
       <c r="K221" s="3">
-        <f>J221*K220/J220</f>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="L221" s="3">
@@ -17806,7 +17806,7 @@
       <c r="X221" s="3"/>
       <c r="AC221" s="3"/>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A222" s="11">
         <v>480</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>10</v>
       </c>
       <c r="K222" s="3">
-        <f>J222*K221/J221</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="L222" s="3">
@@ -17878,7 +17878,7 @@
       <c r="X222" s="3"/>
       <c r="AC222" s="3"/>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A223" s="11">
         <v>509</v>
       </c>
@@ -17908,7 +17908,7 @@
         <v>10</v>
       </c>
       <c r="K223" s="3">
-        <f>J223*K222/J222</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="L223" s="3">
@@ -17950,7 +17950,7 @@
       <c r="X223" s="3"/>
       <c r="AC223" s="3"/>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A224" s="11">
         <v>437</v>
       </c>
@@ -17980,7 +17980,7 @@
         <v>5</v>
       </c>
       <c r="K224" s="3">
-        <f>J224*K223/J223</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="L224" s="3">
@@ -18022,7 +18022,7 @@
       <c r="X224" s="3"/>
       <c r="AC224" s="3"/>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A225" s="11">
         <v>359</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>10</v>
       </c>
       <c r="K225" s="3">
-        <f>J225*K224/J224</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="L225" s="3">
@@ -18094,7 +18094,7 @@
       <c r="X225" s="3"/>
       <c r="AC225" s="3"/>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A226" s="11">
         <v>222</v>
       </c>
@@ -18124,7 +18124,7 @@
         <v>30</v>
       </c>
       <c r="K226" s="3">
-        <f>J226*K225/J225</f>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="L226" s="3" t="s">
@@ -18166,7 +18166,7 @@
       <c r="X226" s="3"/>
       <c r="AC226" s="3"/>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A227" s="11">
         <v>212</v>
       </c>
@@ -18196,7 +18196,7 @@
         <v>5</v>
       </c>
       <c r="K227" s="3">
-        <f>J227*K226/J226</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="L227" s="3">
@@ -18238,7 +18238,7 @@
       <c r="X227" s="3"/>
       <c r="AC227" s="3"/>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A228" s="11">
         <v>174</v>
       </c>
@@ -18268,7 +18268,7 @@
         <v>10</v>
       </c>
       <c r="K228" s="3">
-        <f>J228*K227/J227</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="L228" s="3" t="s">
@@ -18310,7 +18310,7 @@
       <c r="X228" s="3"/>
       <c r="AC228" s="3"/>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A229" s="11">
         <v>43</v>
       </c>
@@ -18340,7 +18340,7 @@
         <v>30</v>
       </c>
       <c r="K229" s="3">
-        <f>J229*K228/J228</f>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="L229" s="3" t="s">
@@ -18382,7 +18382,7 @@
       <c r="X229" s="3"/>
       <c r="AC229" s="3"/>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A230" s="11">
         <v>417</v>
       </c>
@@ -18412,7 +18412,7 @@
         <v>20</v>
       </c>
       <c r="K230" s="3">
-        <f>J230*K229/J229</f>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="L230" s="3" t="s">
@@ -18454,7 +18454,7 @@
       <c r="X230" s="3"/>
       <c r="AC230" s="3"/>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A231" s="11">
         <v>152</v>
       </c>
@@ -18484,7 +18484,7 @@
         <v>10</v>
       </c>
       <c r="K231" s="3">
-        <f>J231*K230/J230</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="L231" s="3">
@@ -18526,7 +18526,7 @@
       <c r="X231" s="3"/>
       <c r="AC231" s="3"/>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A232" s="11">
         <v>692</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>15</v>
       </c>
       <c r="K232" s="3">
-        <f>J232*K231/J231</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="L232" s="3">
@@ -18598,7 +18598,7 @@
       <c r="X232" s="3"/>
       <c r="AC232" s="3"/>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A233" s="11">
         <v>244</v>
       </c>
@@ -18628,7 +18628,7 @@
         <v>10</v>
       </c>
       <c r="K233" s="3">
-        <f>J233*K232/J232</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="L233" s="3">
@@ -18670,7 +18670,7 @@
       <c r="X233" s="3"/>
       <c r="AC233" s="3"/>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A234" s="11">
         <v>452</v>
       </c>
@@ -18700,7 +18700,7 @@
         <v>15</v>
       </c>
       <c r="K234" s="3">
-        <f>J234*K233/J233</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="L234" s="3">
@@ -18742,7 +18742,7 @@
       <c r="X234" s="3"/>
       <c r="AC234" s="3"/>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A235" s="11">
         <v>72</v>
       </c>
@@ -18772,7 +18772,7 @@
         <v>15</v>
       </c>
       <c r="K235" s="3">
-        <f>J235*K234/J234</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="L235" s="3">
@@ -18814,7 +18814,7 @@
       <c r="X235" s="3"/>
       <c r="AC235" s="3"/>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A236" s="11">
         <v>224</v>
       </c>
@@ -18844,7 +18844,7 @@
         <v>10</v>
       </c>
       <c r="K236" s="3">
-        <f>J236*K235/J235</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="L236" s="3">
@@ -18886,7 +18886,7 @@
       <c r="X236" s="3"/>
       <c r="AC236" s="3"/>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A237" s="11">
         <v>269</v>
       </c>
@@ -18916,7 +18916,7 @@
         <v>20</v>
       </c>
       <c r="K237" s="3">
-        <f>J237*K236/J236</f>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="L237" s="3">
@@ -18958,7 +18958,7 @@
       <c r="X237" s="3"/>
       <c r="AC237" s="3"/>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A238" s="11">
         <v>44</v>
       </c>
@@ -18988,7 +18988,7 @@
         <v>25</v>
       </c>
       <c r="K238" s="3">
-        <f>J238*K237/J237</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="L238" s="3">
@@ -19030,7 +19030,7 @@
       <c r="X238" s="3"/>
       <c r="AC238" s="3"/>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>69</v>
       </c>
@@ -19060,7 +19060,7 @@
         <v>20</v>
       </c>
       <c r="K239" s="3">
-        <f>J239*K238/J238</f>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="L239" s="3">
@@ -19102,7 +19102,7 @@
       <c r="X239" s="3"/>
       <c r="AC239" s="3"/>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A240" s="11">
         <v>54</v>
       </c>
@@ -19132,7 +19132,7 @@
         <v>30</v>
       </c>
       <c r="K240" s="3">
-        <f>J240*K239/J239</f>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="L240" s="3" t="s">
@@ -19174,7 +19174,7 @@
       <c r="X240" s="3"/>
       <c r="AC240" s="3"/>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A241" s="11">
         <v>114</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>30</v>
       </c>
       <c r="K241" s="3">
-        <f>J241*K240/J240</f>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="L241" s="3" t="s">
@@ -19246,7 +19246,7 @@
       <c r="X241" s="3"/>
       <c r="AC241" s="3"/>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A242" s="11">
         <v>499</v>
       </c>
@@ -19276,7 +19276,7 @@
         <v>15</v>
       </c>
       <c r="K242" s="3">
-        <f>J242*K241/J241</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="L242" s="3">
@@ -19318,7 +19318,7 @@
       <c r="X242" s="3"/>
       <c r="AC242" s="3"/>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A243" s="11">
         <v>181</v>
       </c>
@@ -19350,7 +19350,7 @@
         <v>25</v>
       </c>
       <c r="K243" s="3">
-        <f>J243*K242/J242</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="L243" s="3" t="s">
@@ -19392,7 +19392,7 @@
       <c r="X243" s="3"/>
       <c r="AC243" s="3"/>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A244" s="11">
         <v>257</v>
       </c>
@@ -19424,7 +19424,7 @@
         <v>10</v>
       </c>
       <c r="K244" s="3">
-        <f>J244*K243/J243</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="L244" s="3" t="s">
@@ -19466,7 +19466,7 @@
       <c r="X244" s="3"/>
       <c r="AC244" s="3"/>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A245" s="11">
         <v>86</v>
       </c>
@@ -19498,7 +19498,7 @@
         <v>20</v>
       </c>
       <c r="K245" s="3">
-        <f>J245*K244/J244</f>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="L245" s="3">
@@ -19540,7 +19540,7 @@
       <c r="X245" s="3"/>
       <c r="AC245" s="3"/>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A246" s="11">
         <v>410</v>
       </c>
@@ -19570,7 +19570,7 @@
         <v>30</v>
       </c>
       <c r="K246" s="3">
-        <f>J246*K245/J245</f>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="L246" s="3">
@@ -19612,7 +19612,7 @@
       <c r="X246" s="3"/>
       <c r="AC246" s="3"/>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A247" s="11">
         <v>351</v>
       </c>
@@ -19642,7 +19642,7 @@
         <v>20</v>
       </c>
       <c r="K247" s="3">
-        <f>J247*K246/J246</f>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="L247" s="3">
@@ -19684,7 +19684,7 @@
       <c r="X247" s="3"/>
       <c r="AC247" s="3"/>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A248" s="11">
         <v>227</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>5</v>
       </c>
       <c r="K248" s="3">
-        <f>J248*K247/J247</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="L248" s="3">
@@ -19756,7 +19756,7 @@
       <c r="X248" s="3"/>
       <c r="AC248" s="3"/>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A249" s="11">
         <v>413</v>
       </c>
@@ -19786,7 +19786,7 @@
         <v>15</v>
       </c>
       <c r="K249" s="3">
-        <f>J249*K248/J248</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="L249" s="3">
@@ -19828,7 +19828,7 @@
       <c r="X249" s="3"/>
       <c r="AC249" s="3"/>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A250" s="11">
         <v>251</v>
       </c>
@@ -19858,7 +19858,7 @@
         <v>10</v>
       </c>
       <c r="K250" s="3">
-        <f>J250*K249/J249</f>
+        <f t="shared" ref="K250:K281" si="7">J250*K249/J249</f>
         <v>16</v>
       </c>
       <c r="L250" s="3">
@@ -19900,7 +19900,7 @@
       <c r="X250" s="3"/>
       <c r="AC250" s="3"/>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A251" s="11">
         <v>113</v>
       </c>
@@ -19930,7 +19930,7 @@
         <v>30</v>
       </c>
       <c r="K251" s="3">
-        <f>J251*K250/J250</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="L251" s="3" t="s">
@@ -19972,7 +19972,7 @@
       <c r="X251" s="3"/>
       <c r="AC251" s="3"/>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A252" s="11">
         <v>78</v>
       </c>
@@ -20004,7 +20004,7 @@
         <v>30</v>
       </c>
       <c r="K252" s="3">
-        <f>J252*K251/J251</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="L252" s="3">
@@ -20046,7 +20046,7 @@
       <c r="X252" s="3"/>
       <c r="AC252" s="3"/>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A253" s="11">
         <v>326</v>
       </c>
@@ -20076,7 +20076,7 @@
         <v>20</v>
       </c>
       <c r="K253" s="3">
-        <f>J253*K252/J252</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="L253" s="3">
@@ -20118,7 +20118,7 @@
       <c r="X253" s="3"/>
       <c r="AC253" s="3"/>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A254" s="11">
         <v>67</v>
       </c>
@@ -20148,7 +20148,7 @@
         <v>20</v>
       </c>
       <c r="K254" s="3">
-        <f>J254*K253/J253</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="L254" s="3">
@@ -20190,7 +20190,7 @@
       <c r="X254" s="3"/>
       <c r="AC254" s="3"/>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A255" s="11">
         <v>26</v>
       </c>
@@ -20220,7 +20220,7 @@
         <v>10</v>
       </c>
       <c r="K255" s="3">
-        <f>J255*K254/J254</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="L255" s="3">
@@ -20262,7 +20262,7 @@
       <c r="X255" s="3"/>
       <c r="AC255" s="3"/>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>136</v>
       </c>
@@ -20292,7 +20292,7 @@
         <v>10</v>
       </c>
       <c r="K256" s="3">
-        <f>J256*K255/J255</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="L256" s="3">
@@ -20334,7 +20334,7 @@
       <c r="X256" s="3"/>
       <c r="AC256" s="3"/>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A257" s="11">
         <v>707</v>
       </c>
@@ -20364,7 +20364,7 @@
         <v>10</v>
       </c>
       <c r="K257" s="3">
-        <f>J257*K256/J256</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="L257" s="3">
@@ -20406,7 +20406,7 @@
       <c r="X257" s="3"/>
       <c r="AC257" s="3"/>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A258" s="11">
         <v>347</v>
       </c>
@@ -20436,7 +20436,7 @@
         <v>20</v>
       </c>
       <c r="K258" s="3">
-        <f>J258*K257/J257</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="L258" s="3" t="s">
@@ -20478,7 +20478,7 @@
       <c r="X258" s="3"/>
       <c r="AC258" s="3"/>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A259" s="11">
         <v>171</v>
       </c>
@@ -20510,7 +20510,7 @@
         <v>15</v>
       </c>
       <c r="K259" s="3">
-        <f>J259*K258/J258</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="L259" s="3">
@@ -20552,7 +20552,7 @@
       <c r="X259" s="3"/>
       <c r="AC259" s="3"/>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A260" s="11">
         <v>450</v>
       </c>
@@ -20582,7 +20582,7 @@
         <v>20</v>
       </c>
       <c r="K260" s="3">
-        <f>J260*K259/J259</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="L260" s="3">
@@ -20624,7 +20624,7 @@
       <c r="X260" s="3"/>
       <c r="AC260" s="3"/>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A261" s="11">
         <v>65</v>
       </c>
@@ -20654,7 +20654,7 @@
         <v>20</v>
       </c>
       <c r="K261" s="3">
-        <f>J261*K260/J260</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="L261" s="3">
@@ -20696,7 +20696,7 @@
       <c r="X261" s="3"/>
       <c r="AC261" s="3"/>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A262" s="11">
         <v>64</v>
       </c>
@@ -20726,7 +20726,7 @@
         <v>35</v>
       </c>
       <c r="K262" s="3">
-        <f>J262*K261/J261</f>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="L262" s="3">
@@ -20768,7 +20768,7 @@
       <c r="X262" s="3"/>
       <c r="AC262" s="3"/>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>262</v>
       </c>
@@ -20798,7 +20798,7 @@
         <v>10</v>
       </c>
       <c r="K263" s="3">
-        <f>J263*K262/J262</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="L263" s="3">
@@ -20840,7 +20840,7 @@
       <c r="X263" s="3"/>
       <c r="AC263" s="3"/>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A264" s="11">
         <v>365</v>
       </c>
@@ -20870,7 +20870,7 @@
         <v>20</v>
       </c>
       <c r="K264" s="3">
-        <f>J264*K263/J263</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="L264" s="3">
@@ -20912,7 +20912,7 @@
       <c r="X264" s="3"/>
       <c r="AC264" s="3"/>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A265" s="11">
         <v>42</v>
       </c>
@@ -20942,7 +20942,7 @@
         <v>20</v>
       </c>
       <c r="K265" s="3">
-        <f>J265*K264/J264</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="L265" s="3">
@@ -20984,7 +20984,7 @@
       <c r="X265" s="3"/>
       <c r="AC265" s="3"/>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A266" s="11">
         <v>481</v>
       </c>
@@ -21014,7 +21014,7 @@
         <v>15</v>
       </c>
       <c r="K266" s="3">
-        <f>J266*K265/J265</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="L266" s="3">
@@ -21056,7 +21056,7 @@
       <c r="X266" s="3"/>
       <c r="AC266" s="3"/>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A267" s="11">
         <v>23</v>
       </c>
@@ -21086,7 +21086,7 @@
         <v>20</v>
       </c>
       <c r="K267" s="3">
-        <f>J267*K266/J266</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="L267" s="3">
@@ -21128,7 +21128,7 @@
       <c r="X267" s="3"/>
       <c r="AC267" s="3"/>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A268" s="11">
         <v>55</v>
       </c>
@@ -21158,7 +21158,7 @@
         <v>25</v>
       </c>
       <c r="K268" s="3">
-        <f>J268*K267/J267</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="L268" s="3">
@@ -21200,7 +21200,7 @@
       <c r="X268" s="3"/>
       <c r="AC268" s="3"/>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A269" s="11">
         <v>33</v>
       </c>
@@ -21230,7 +21230,7 @@
         <v>35</v>
       </c>
       <c r="K269" s="3">
-        <f>J269*K268/J268</f>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="L269" s="3">
@@ -21272,7 +21272,7 @@
       <c r="X269" s="3"/>
       <c r="AC269" s="3"/>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A270" s="11">
         <v>338</v>
       </c>
@@ -21302,7 +21302,7 @@
         <v>5</v>
       </c>
       <c r="K270" s="3">
-        <f>J270*K269/J269</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="L270" s="3">
@@ -21344,7 +21344,7 @@
       <c r="X270" s="3"/>
       <c r="AC270" s="3"/>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A271" s="11">
         <v>237</v>
       </c>
@@ -21374,7 +21374,7 @@
         <v>15</v>
       </c>
       <c r="K271" s="3">
-        <f>J271*K270/J270</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="L271" s="3">
@@ -21416,7 +21416,7 @@
       <c r="X271" s="3"/>
       <c r="AC271" s="3"/>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A272" s="11">
         <v>246</v>
       </c>
@@ -21446,7 +21446,7 @@
         <v>5</v>
       </c>
       <c r="K272" s="3">
-        <f>J272*K271/J271</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="L272" s="3">
@@ -21488,7 +21488,7 @@
       <c r="X272" s="3"/>
       <c r="AC272" s="3"/>
     </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A273" s="11">
         <v>500</v>
       </c>
@@ -21518,7 +21518,7 @@
         <v>10</v>
       </c>
       <c r="K273" s="3">
-        <f>J273*K272/J272</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="L273" s="3">
@@ -21560,7 +21560,7 @@
       <c r="X273" s="3"/>
       <c r="AC273" s="3"/>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A274" s="11">
         <v>123</v>
       </c>
@@ -21592,7 +21592,7 @@
         <v>20</v>
       </c>
       <c r="K274" s="3">
-        <f>J274*K273/J273</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="L274" s="3">
@@ -21634,7 +21634,7 @@
       <c r="X274" s="3"/>
       <c r="AC274" s="3"/>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A275" s="11">
         <v>77</v>
       </c>
@@ -21666,7 +21666,7 @@
         <v>35</v>
       </c>
       <c r="K275" s="3">
-        <f>J275*K274/J274</f>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="L275" s="3">
@@ -21708,7 +21708,7 @@
       <c r="X275" s="3"/>
       <c r="AC275" s="3"/>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A276" s="11">
         <v>248</v>
       </c>
@@ -21738,7 +21738,7 @@
         <v>10</v>
       </c>
       <c r="K276" s="3">
-        <f>J276*K275/J275</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="L276" s="3">
@@ -21780,7 +21780,7 @@
       <c r="X276" s="3"/>
       <c r="AC276" s="3"/>
     </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A277" s="11">
         <v>182</v>
       </c>
@@ -21810,7 +21810,7 @@
         <v>10</v>
       </c>
       <c r="K277" s="3">
-        <f>J277*K276/J276</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="L277" s="3" t="s">
@@ -21852,7 +21852,7 @@
       <c r="X277" s="3"/>
       <c r="AC277" s="3"/>
     </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A278" s="11">
         <v>473</v>
       </c>
@@ -21882,7 +21882,7 @@
         <v>10</v>
       </c>
       <c r="K278" s="3">
-        <f>J278*K277/J277</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="L278" s="3">
@@ -21924,7 +21924,7 @@
       <c r="X278" s="3"/>
       <c r="AC278" s="3"/>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A279" s="11">
         <v>706</v>
       </c>
@@ -21954,7 +21954,7 @@
         <v>10</v>
       </c>
       <c r="K279" s="3">
-        <f>J279*K278/J278</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="L279" s="3">
@@ -21996,7 +21996,7 @@
       <c r="X279" s="3"/>
       <c r="AC279" s="3"/>
     </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A280" s="11">
         <v>427</v>
       </c>
@@ -22026,7 +22026,7 @@
         <v>20</v>
       </c>
       <c r="K280" s="3">
-        <f>J280*K279/J279</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="L280" s="3">
@@ -22068,7 +22068,7 @@
       <c r="X280" s="3"/>
       <c r="AC280" s="3"/>
     </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A281" s="11">
         <v>149</v>
       </c>
@@ -22098,7 +22098,7 @@
         <v>15</v>
       </c>
       <c r="K281" s="3">
-        <f>J281*K280/J280</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="L281" s="3">
@@ -22140,7 +22140,7 @@
       <c r="X281" s="3"/>
       <c r="AC281" s="3"/>
     </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A282" s="11">
         <v>60</v>
       </c>
@@ -22172,7 +22172,7 @@
         <v>20</v>
       </c>
       <c r="K282" s="3">
-        <f>J282*K281/J281</f>
+        <f t="shared" ref="K282:K313" si="8">J282*K281/J281</f>
         <v>32</v>
       </c>
       <c r="L282" s="3">
@@ -22214,7 +22214,7 @@
       <c r="X282" s="3"/>
       <c r="AC282" s="3"/>
     </row>
-    <row r="283" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A283" s="11">
         <v>94</v>
       </c>
@@ -22244,7 +22244,7 @@
         <v>10</v>
       </c>
       <c r="K283" s="3">
-        <f>J283*K282/J282</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="L283" s="3">
@@ -22286,7 +22286,7 @@
       <c r="X283" s="3"/>
       <c r="AC283" s="3"/>
     </row>
-    <row r="284" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A284" s="11">
         <v>191</v>
       </c>
@@ -22316,7 +22316,7 @@
         <v>20</v>
       </c>
       <c r="K284" s="3">
-        <f>J284*K283/J283</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="L284" s="3" t="s">
@@ -22358,7 +22358,7 @@
       <c r="X284" s="3"/>
       <c r="AC284" s="3"/>
     </row>
-    <row r="285" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A285" s="11">
         <v>390</v>
       </c>
@@ -22388,7 +22388,7 @@
         <v>20</v>
       </c>
       <c r="K285" s="3">
-        <f>J285*K284/J284</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="L285" s="3" t="s">
@@ -22430,7 +22430,7 @@
       <c r="X285" s="3"/>
       <c r="AC285" s="3"/>
     </row>
-    <row r="286" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A286" s="11">
         <v>505</v>
       </c>
@@ -22460,7 +22460,7 @@
         <v>10</v>
       </c>
       <c r="K286" s="3">
-        <f>J286*K285/J285</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="L286" s="3">
@@ -22502,7 +22502,7 @@
       <c r="X286" s="3"/>
       <c r="AC286" s="3"/>
     </row>
-    <row r="287" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A287" s="11">
         <v>406</v>
       </c>
@@ -22532,7 +22532,7 @@
         <v>10</v>
       </c>
       <c r="K287" s="3">
-        <f>J287*K286/J286</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="L287" s="3">
@@ -22574,7 +22574,7 @@
       <c r="X287" s="3"/>
       <c r="AC287" s="3"/>
     </row>
-    <row r="288" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A288" s="11">
         <v>539</v>
       </c>
@@ -22604,7 +22604,7 @@
         <v>10</v>
       </c>
       <c r="K288" s="3">
-        <f>J288*K287/J287</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="L288" s="3">
@@ -22646,7 +22646,7 @@
       <c r="X288" s="3"/>
       <c r="AC288" s="3"/>
     </row>
-    <row r="289" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A289" s="11">
         <v>399</v>
       </c>
@@ -22676,7 +22676,7 @@
         <v>15</v>
       </c>
       <c r="K289" s="3">
-        <f>J289*K288/J288</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="L289" s="3">
@@ -22718,7 +22718,7 @@
       <c r="X289" s="3"/>
       <c r="AC289" s="3"/>
     </row>
-    <row r="290" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A290" s="11">
         <v>662</v>
       </c>
@@ -22748,7 +22748,7 @@
         <v>10</v>
       </c>
       <c r="K290" s="3">
-        <f>J290*K289/J289</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="L290" s="3">
@@ -22790,7 +22790,7 @@
       <c r="X290" s="3"/>
       <c r="AC290" s="3"/>
     </row>
-    <row r="291" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A291" s="11">
         <v>490</v>
       </c>
@@ -22820,7 +22820,7 @@
         <v>20</v>
       </c>
       <c r="K291" s="3">
-        <f>J291*K290/J290</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="L291" s="3">
@@ -22862,7 +22862,7 @@
       <c r="X291" s="3"/>
       <c r="AC291" s="3"/>
     </row>
-    <row r="292" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A292" s="11">
         <v>7</v>
       </c>
@@ -22894,7 +22894,7 @@
         <v>15</v>
       </c>
       <c r="K292" s="3">
-        <f>J292*K291/J291</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="L292" s="3">
@@ -22936,7 +22936,7 @@
       <c r="X292" s="3"/>
       <c r="AC292" s="3"/>
     </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A293" s="11">
         <v>8</v>
       </c>
@@ -22968,7 +22968,7 @@
         <v>15</v>
       </c>
       <c r="K293" s="3">
-        <f>J293*K292/J292</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="L293" s="3">
@@ -23010,7 +23010,7 @@
       <c r="X293" s="3"/>
       <c r="AC293" s="3"/>
     </row>
-    <row r="294" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A294" s="11">
         <v>325</v>
       </c>
@@ -23040,7 +23040,7 @@
         <v>20</v>
       </c>
       <c r="K294" s="3">
-        <f>J294*K293/J293</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="L294" s="3">
@@ -23082,7 +23082,7 @@
       <c r="X294" s="3"/>
       <c r="AC294" s="3"/>
     </row>
-    <row r="295" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A295" s="11">
         <v>9</v>
       </c>
@@ -23114,7 +23114,7 @@
         <v>15</v>
       </c>
       <c r="K295" s="3">
-        <f>J295*K294/J294</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="L295" s="3">
@@ -23156,7 +23156,7 @@
       <c r="X295" s="3"/>
       <c r="AC295" s="3"/>
     </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A296" s="11">
         <v>685</v>
       </c>
@@ -23188,7 +23188,7 @@
         <v>20</v>
       </c>
       <c r="K296" s="3">
-        <f>J296*K295/J295</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="L296" s="3">
@@ -23230,7 +23230,7 @@
       <c r="X296" s="3"/>
       <c r="AC296" s="3"/>
     </row>
-    <row r="297" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A297" s="11">
         <v>398</v>
       </c>
@@ -23262,7 +23262,7 @@
         <v>20</v>
       </c>
       <c r="K297" s="3">
-        <f>J297*K296/J296</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="L297" s="3">
@@ -23304,7 +23304,7 @@
       <c r="X297" s="3"/>
       <c r="AC297" s="3"/>
     </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A298" s="11">
         <v>129</v>
       </c>
@@ -23334,7 +23334,7 @@
         <v>20</v>
       </c>
       <c r="K298" s="3">
-        <f>J298*K297/J297</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="L298" s="3" t="s">
@@ -23376,7 +23376,7 @@
       <c r="X298" s="3"/>
       <c r="AC298" s="3"/>
     </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A299" s="11">
         <v>316</v>
       </c>
@@ -23408,7 +23408,7 @@
         <v>40</v>
       </c>
       <c r="K299" s="3">
-        <f>J299*K298/J298</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="L299" s="3">
@@ -23450,7 +23450,7 @@
       <c r="X299" s="3"/>
       <c r="AC299" s="3"/>
     </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A300" s="11">
         <v>85</v>
       </c>
@@ -23482,7 +23482,7 @@
         <v>15</v>
       </c>
       <c r="K300" s="3">
-        <f>J300*K299/J299</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="L300" s="3">
@@ -23524,7 +23524,7 @@
       <c r="X300" s="3"/>
       <c r="AC300" s="3"/>
     </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A301" s="11">
         <v>61</v>
       </c>
@@ -23554,7 +23554,7 @@
         <v>20</v>
       </c>
       <c r="K301" s="3">
-        <f>J301*K300/J300</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="L301" s="3">
@@ -23596,7 +23596,7 @@
       <c r="X301" s="3"/>
       <c r="AC301" s="3"/>
     </row>
-    <row r="302" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A302" s="11">
         <v>109</v>
       </c>
@@ -23628,7 +23628,7 @@
         <v>10</v>
       </c>
       <c r="K302" s="3">
-        <f>J302*K301/J301</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="L302" s="3">
@@ -23670,7 +23670,7 @@
       <c r="X302" s="3"/>
       <c r="AC302" s="3"/>
     </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A303" s="11">
         <v>58</v>
       </c>
@@ -23702,7 +23702,7 @@
         <v>10</v>
       </c>
       <c r="K303" s="3">
-        <f>J303*K302/J302</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="L303" s="3">
@@ -23744,7 +23744,7 @@
       <c r="X303" s="3"/>
       <c r="AC303" s="3"/>
     </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A304" s="11">
         <v>76</v>
       </c>
@@ -23774,7 +23774,7 @@
         <v>10</v>
       </c>
       <c r="K304" s="3">
-        <f>J304*K303/J303</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="L304" s="3">
@@ -23816,7 +23816,7 @@
       <c r="X304" s="3"/>
       <c r="AC304" s="3"/>
     </row>
-    <row r="305" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A305" s="11">
         <v>278</v>
       </c>
@@ -23846,7 +23846,7 @@
         <v>10</v>
       </c>
       <c r="K305" s="3">
-        <f>J305*K304/J304</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="L305" s="3" t="s">
@@ -23888,7 +23888,7 @@
       <c r="X305" s="3"/>
       <c r="AC305" s="3"/>
     </row>
-    <row r="306" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A306" s="11">
         <v>105</v>
       </c>
@@ -23918,7 +23918,7 @@
         <v>10</v>
       </c>
       <c r="K306" s="3">
-        <f>J306*K305/J305</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="L306" s="3" t="s">
@@ -23960,7 +23960,7 @@
       <c r="X306" s="3"/>
       <c r="AC306" s="3"/>
     </row>
-    <row r="307" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A307" s="11">
         <v>331</v>
       </c>
@@ -23990,7 +23990,7 @@
         <v>30</v>
       </c>
       <c r="K307" s="3">
-        <f>J307*K306/J306</f>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="L307" s="3">
@@ -24032,7 +24032,7 @@
       <c r="X307" s="3"/>
       <c r="AC307" s="3"/>
     </row>
-    <row r="308" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A308" s="11">
         <v>564</v>
       </c>
@@ -24062,7 +24062,7 @@
         <v>20</v>
       </c>
       <c r="K308" s="3">
-        <f>J308*K307/J307</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="L308" s="3" t="s">
@@ -24104,7 +24104,7 @@
       <c r="X308" s="3"/>
       <c r="AC308" s="3"/>
     </row>
-    <row r="309" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A309" s="11">
         <v>115</v>
       </c>
@@ -24134,7 +24134,7 @@
         <v>20</v>
       </c>
       <c r="K309" s="3">
-        <f>J309*K308/J308</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="L309" s="3" t="s">
@@ -24176,7 +24176,7 @@
       <c r="X309" s="3"/>
       <c r="AC309" s="3"/>
     </row>
-    <row r="310" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A310" s="11">
         <v>270</v>
       </c>
@@ -24206,7 +24206,7 @@
         <v>20</v>
       </c>
       <c r="K310" s="3">
-        <f>J310*K309/J309</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="L310" s="3" t="s">
@@ -24248,7 +24248,7 @@
       <c r="X310" s="3"/>
       <c r="AC310" s="3"/>
     </row>
-    <row r="311" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A311" s="11">
         <v>514</v>
       </c>
@@ -24278,7 +24278,7 @@
         <v>5</v>
       </c>
       <c r="K311" s="3">
-        <f>J311*K310/J310</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="L311" s="3">
@@ -24320,7 +24320,7 @@
       <c r="X311" s="3"/>
       <c r="AC311" s="3"/>
     </row>
-    <row r="312" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A312" s="11">
         <v>254</v>
       </c>
@@ -24350,7 +24350,7 @@
         <v>20</v>
       </c>
       <c r="K312" s="3">
-        <f>J312*K311/J311</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="L312" s="3" t="s">
@@ -24392,7 +24392,7 @@
       <c r="X312" s="3"/>
       <c r="AC312" s="3"/>
     </row>
-    <row r="313" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A313" s="11">
         <v>355</v>
       </c>
@@ -24422,7 +24422,7 @@
         <v>10</v>
       </c>
       <c r="K313" s="3">
-        <f>J313*K312/J312</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="L313" s="3" t="s">
@@ -24464,7 +24464,7 @@
       <c r="X313" s="3"/>
       <c r="AC313" s="3"/>
     </row>
-    <row r="314" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A314" s="11">
         <v>132</v>
       </c>
@@ -24494,7 +24494,7 @@
         <v>35</v>
       </c>
       <c r="K314" s="3">
-        <f>J314*K313/J313</f>
+        <f t="shared" ref="K314:K342" si="9">J314*K313/J313</f>
         <v>56</v>
       </c>
       <c r="L314" s="3">
@@ -24536,7 +24536,7 @@
       <c r="X314" s="3"/>
       <c r="AC314" s="3"/>
     </row>
-    <row r="315" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A315" s="11">
         <v>216</v>
       </c>
@@ -24566,7 +24566,7 @@
         <v>20</v>
       </c>
       <c r="K315" s="3">
-        <f>J315*K314/J314</f>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="L315" s="3">
@@ -24608,7 +24608,7 @@
       <c r="X315" s="3"/>
       <c r="AC315" s="3"/>
     </row>
-    <row r="316" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A316" s="11">
         <v>538</v>
       </c>
@@ -24638,7 +24638,7 @@
         <v>10</v>
       </c>
       <c r="K316" s="3">
-        <f>J316*K315/J315</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="L316" s="3" t="s">
@@ -24680,7 +24680,7 @@
       <c r="X316" s="3"/>
       <c r="AC316" s="3"/>
     </row>
-    <row r="317" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A317" s="11">
         <v>111</v>
       </c>
@@ -24710,7 +24710,7 @@
         <v>40</v>
       </c>
       <c r="K317" s="3">
-        <f>J317*K316/J316</f>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="L317" s="3" t="s">
@@ -24752,7 +24752,7 @@
       <c r="X317" s="3"/>
       <c r="AC317" s="3"/>
     </row>
-    <row r="318" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A318" s="11">
         <v>444</v>
       </c>
@@ -24782,7 +24782,7 @@
         <v>5</v>
       </c>
       <c r="K318" s="3">
-        <f>J318*K317/J317</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="L318" s="3">
@@ -24824,7 +24824,7 @@
       <c r="X318" s="3"/>
       <c r="AC318" s="3"/>
     </row>
-    <row r="319" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A319" s="11">
         <v>537</v>
       </c>
@@ -24854,7 +24854,7 @@
         <v>20</v>
       </c>
       <c r="K319" s="3">
-        <f>J319*K318/J318</f>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="L319" s="3">
@@ -24896,7 +24896,7 @@
       <c r="X319" s="3"/>
       <c r="AC319" s="3"/>
     </row>
-    <row r="320" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A320" s="11">
         <v>173</v>
       </c>
@@ -24926,7 +24926,7 @@
         <v>15</v>
       </c>
       <c r="K320" s="3">
-        <f>J320*K319/J319</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="L320" s="3">
@@ -24968,7 +24968,7 @@
       <c r="X320" s="3"/>
       <c r="AC320" s="3"/>
     </row>
-    <row r="321" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A321" s="11">
         <v>172</v>
       </c>
@@ -25000,7 +25000,7 @@
         <v>25</v>
       </c>
       <c r="K321" s="3">
-        <f>J321*K320/J320</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="L321" s="3">
@@ -25042,7 +25042,7 @@
       <c r="X321" s="3"/>
       <c r="AC321" s="3"/>
     </row>
-    <row r="322" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A322" s="11">
         <v>46</v>
       </c>
@@ -25072,7 +25072,7 @@
         <v>20</v>
       </c>
       <c r="K322" s="3">
-        <f>J322*K321/J321</f>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="L322" s="3">
@@ -25114,7 +25114,7 @@
       <c r="X322" s="3"/>
       <c r="AC322" s="3"/>
     </row>
-    <row r="323" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A323" s="11">
         <v>568</v>
       </c>
@@ -25144,7 +25144,7 @@
         <v>30</v>
       </c>
       <c r="K323" s="3">
-        <f>J323*K322/J322</f>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="L323" s="3">
@@ -25186,7 +25186,7 @@
       <c r="X323" s="3"/>
       <c r="AC323" s="3"/>
     </row>
-    <row r="324" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A324" s="11">
         <v>362</v>
       </c>
@@ -25216,7 +25216,7 @@
         <v>10</v>
       </c>
       <c r="K324" s="3">
-        <f>J324*K323/J323</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="L324" s="3">
@@ -25258,7 +25258,7 @@
       <c r="X324" s="3"/>
       <c r="AC324" s="3"/>
     </row>
-    <row r="325" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A325" s="11">
         <v>150</v>
       </c>
@@ -25288,7 +25288,7 @@
         <v>40</v>
       </c>
       <c r="K325" s="3">
-        <f>J325*K324/J324</f>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="L325" s="3" t="s">
@@ -25330,7 +25330,7 @@
       <c r="X325" s="3"/>
       <c r="AC325" s="3"/>
     </row>
-    <row r="326" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A326" s="11">
         <v>323</v>
       </c>
@@ -25360,7 +25360,7 @@
         <v>5</v>
       </c>
       <c r="K326" s="3">
-        <f>J326*K325/J325</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="L326" s="3" t="s">
@@ -25402,7 +25402,7 @@
       <c r="X326" s="3"/>
       <c r="AC326" s="3"/>
     </row>
-    <row r="327" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A327" s="11">
         <v>445</v>
       </c>
@@ -25432,7 +25432,7 @@
         <v>20</v>
       </c>
       <c r="K327" s="3">
-        <f>J327*K326/J326</f>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="L327" s="3" t="s">
@@ -25474,7 +25474,7 @@
       <c r="X327" s="3"/>
       <c r="AC327" s="3"/>
     </row>
-    <row r="328" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A328" s="11">
         <v>449</v>
       </c>
@@ -25504,7 +25504,7 @@
         <v>10</v>
       </c>
       <c r="K328" s="3">
-        <f>J328*K327/J327</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="L328" s="3">
@@ -25546,7 +25546,7 @@
       <c r="X328" s="3"/>
       <c r="AC328" s="3"/>
     </row>
-    <row r="329" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A329" s="11">
         <v>594</v>
       </c>
@@ -25576,7 +25576,7 @@
         <v>20</v>
       </c>
       <c r="K329" s="3">
-        <f>J329*K328/J328</f>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="L329" s="3">
@@ -25618,7 +25618,7 @@
       <c r="X329" s="3"/>
       <c r="AC329" s="3"/>
     </row>
-    <row r="330" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A330" s="11">
         <v>315</v>
       </c>
@@ -25648,7 +25648,7 @@
         <v>5</v>
       </c>
       <c r="K330" s="3">
-        <f>J330*K329/J329</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="L330" s="3">
@@ -25690,7 +25690,7 @@
       <c r="X330" s="3"/>
       <c r="AC330" s="3"/>
     </row>
-    <row r="331" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A331" s="11">
         <v>234</v>
       </c>
@@ -25720,7 +25720,7 @@
         <v>5</v>
       </c>
       <c r="K331" s="3">
-        <f>J331*K330/J330</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="L331" s="3" t="s">
@@ -25762,7 +25762,7 @@
       <c r="X331" s="3"/>
       <c r="AC331" s="3"/>
     </row>
-    <row r="332" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A332" s="11">
         <v>425</v>
       </c>
@@ -25792,7 +25792,7 @@
         <v>30</v>
       </c>
       <c r="K332" s="3">
-        <f>J332*K331/J331</f>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="L332" s="3">
@@ -25834,7 +25834,7 @@
       <c r="X332" s="3"/>
       <c r="AC332" s="3"/>
     </row>
-    <row r="333" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A333" s="11">
         <v>79</v>
       </c>
@@ -25866,7 +25866,7 @@
         <v>15</v>
       </c>
       <c r="K333" s="3">
-        <f>J333*K332/J332</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="L333" s="3">
@@ -25908,7 +25908,7 @@
       <c r="X333" s="3"/>
       <c r="AC333" s="3"/>
     </row>
-    <row r="334" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A334" s="11">
         <v>252</v>
       </c>
@@ -25938,7 +25938,7 @@
         <v>10</v>
       </c>
       <c r="K334" s="3">
-        <f>J334*K333/J333</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="L334" s="3">
@@ -25980,7 +25980,7 @@
       <c r="X334" s="3"/>
       <c r="AC334" s="3"/>
     </row>
-    <row r="335" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A335" s="11">
         <v>48</v>
       </c>
@@ -26012,7 +26012,7 @@
         <v>20</v>
       </c>
       <c r="K335" s="3">
-        <f>J335*K334/J334</f>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="L335" s="3">
@@ -26054,7 +26054,7 @@
       <c r="X335" s="3"/>
       <c r="AC335" s="3"/>
     </row>
-    <row r="336" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A336" s="11">
         <v>164</v>
       </c>
@@ -26084,7 +26084,7 @@
         <v>10</v>
       </c>
       <c r="K336" s="3">
-        <f>J336*K335/J335</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="L336" s="3" t="s">
@@ -26126,7 +26126,7 @@
       <c r="X336" s="3"/>
       <c r="AC336" s="3"/>
     </row>
-    <row r="337" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A337" s="11">
         <v>403</v>
       </c>
@@ -26156,7 +26156,7 @@
         <v>15</v>
       </c>
       <c r="K337" s="3">
-        <f>J337*K336/J336</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="L337" s="3">
@@ -26198,7 +26198,7 @@
       <c r="X337" s="3"/>
       <c r="AC337" s="3"/>
     </row>
-    <row r="338" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A338" s="11">
         <v>400</v>
       </c>
@@ -26228,7 +26228,7 @@
         <v>15</v>
       </c>
       <c r="K338" s="3">
-        <f>J338*K337/J337</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="L338" s="3">
@@ -26270,7 +26270,7 @@
       <c r="X338" s="3"/>
       <c r="AC338" s="3"/>
     </row>
-    <row r="339" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A339" s="11">
         <v>529</v>
       </c>
@@ -26300,7 +26300,7 @@
         <v>10</v>
       </c>
       <c r="K339" s="3">
-        <f>J339*K338/J338</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="L339" s="3">
@@ -26342,7 +26342,7 @@
       <c r="X339" s="3"/>
       <c r="AC339" s="3"/>
     </row>
-    <row r="340" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A340" s="11">
         <v>187</v>
       </c>
@@ -26372,7 +26372,7 @@
         <v>10</v>
       </c>
       <c r="K340" s="3">
-        <f>J340*K339/J339</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="L340" s="3" t="s">
@@ -26414,7 +26414,7 @@
       <c r="X340" s="3"/>
       <c r="AC340" s="3"/>
     </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A341" s="11">
         <v>169</v>
       </c>
@@ -26444,7 +26444,7 @@
         <v>10</v>
       </c>
       <c r="K341" s="3">
-        <f>J341*K340/J340</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="L341" s="3">
@@ -26486,7 +26486,7 @@
       <c r="X341" s="3"/>
       <c r="AC341" s="3"/>
     </row>
-    <row r="342" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A342" s="11">
         <v>170</v>
       </c>
@@ -26516,7 +26516,7 @@
         <v>5</v>
       </c>
       <c r="K342" s="3">
-        <f>J342*K341/J341</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="L342" s="3">
@@ -26558,7 +26558,7 @@
       <c r="X342" s="3"/>
       <c r="AC342" s="3"/>
     </row>
-    <row r="343" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>711</v>
       </c>
@@ -26629,7 +26629,7 @@
       <c r="X343" s="3"/>
       <c r="AC343" s="3"/>
     </row>
-    <row r="344" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A344" s="11">
         <v>523</v>
       </c>
@@ -26700,7 +26700,7 @@
       <c r="X344" s="3"/>
       <c r="AC344" s="3"/>
     </row>
-    <row r="345" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A345" s="11">
         <v>89</v>
       </c>
@@ -26730,7 +26730,7 @@
         <v>10</v>
       </c>
       <c r="K345" s="3">
-        <f>J345*K344/J344</f>
+        <f t="shared" ref="K345:K376" si="10">J345*K344/J344</f>
         <v>16</v>
       </c>
       <c r="L345" s="3" t="s">
@@ -26772,7 +26772,7 @@
       <c r="X345" s="3"/>
       <c r="AC345" s="3"/>
     </row>
-    <row r="346" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A346" s="11">
         <v>414</v>
       </c>
@@ -26802,7 +26802,7 @@
         <v>10</v>
       </c>
       <c r="K346" s="3">
-        <f>J346*K345/J345</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="L346" s="3">
@@ -26844,7 +26844,7 @@
       <c r="X346" s="3"/>
       <c r="AC346" s="3"/>
     </row>
-    <row r="347" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A347" s="11">
         <v>404</v>
       </c>
@@ -26874,7 +26874,7 @@
         <v>15</v>
       </c>
       <c r="K347" s="3">
-        <f>J347*K346/J346</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="L347" s="3">
@@ -26916,7 +26916,7 @@
       <c r="X347" s="3"/>
       <c r="AC347" s="3"/>
     </row>
-    <row r="348" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A348" s="11">
         <v>101</v>
       </c>
@@ -26946,7 +26946,7 @@
         <v>15</v>
       </c>
       <c r="K348" s="3">
-        <f>J348*K347/J347</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="L348" s="3">
@@ -26988,7 +26988,7 @@
       <c r="X348" s="3"/>
       <c r="AC348" s="3"/>
     </row>
-    <row r="349" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A349" s="11">
         <v>233</v>
       </c>
@@ -27018,7 +27018,7 @@
         <v>10</v>
       </c>
       <c r="K349" s="3">
-        <f>J349*K348/J348</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="L349" s="3">
@@ -27060,7 +27060,7 @@
       <c r="X349" s="3"/>
       <c r="AC349" s="3"/>
     </row>
-    <row r="350" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>201</v>
       </c>
@@ -27090,7 +27090,7 @@
         <v>10</v>
       </c>
       <c r="K350" s="3">
-        <f>J350*K349/J349</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="L350" s="3" t="s">
@@ -27132,7 +27132,7 @@
       <c r="X350" s="3"/>
       <c r="AC350" s="3"/>
     </row>
-    <row r="351" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A351" s="11">
         <v>572</v>
       </c>
@@ -27162,7 +27162,7 @@
         <v>15</v>
       </c>
       <c r="K351" s="3">
-        <f>J351*K350/J350</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="L351" s="3" t="s">
@@ -27204,7 +27204,7 @@
       <c r="X351" s="3"/>
       <c r="AC351" s="3"/>
     </row>
-    <row r="352" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A352" s="11">
         <v>259</v>
       </c>
@@ -27236,7 +27236,7 @@
         <v>15</v>
       </c>
       <c r="K352" s="3">
-        <f>J352*K351/J351</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="L352" s="3">
@@ -27278,7 +27278,7 @@
       <c r="X352" s="3"/>
       <c r="AC352" s="3"/>
     </row>
-    <row r="353" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A353" s="11">
         <v>256</v>
       </c>
@@ -27308,7 +27308,7 @@
         <v>10</v>
       </c>
       <c r="K353" s="3">
-        <f>J353*K352/J352</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="L353" s="3" t="s">
@@ -27350,7 +27350,7 @@
       <c r="X353" s="3"/>
       <c r="AC353" s="3"/>
     </row>
-    <row r="354" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A354" s="11">
         <v>446</v>
       </c>
@@ -27380,7 +27380,7 @@
         <v>20</v>
       </c>
       <c r="K354" s="3">
-        <f>J354*K353/J353</f>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="L354" s="3" t="s">
@@ -27422,7 +27422,7 @@
       <c r="X354" s="3"/>
       <c r="AC354" s="3"/>
     </row>
-    <row r="355" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A355" s="11">
         <v>599</v>
       </c>
@@ -27452,7 +27452,7 @@
         <v>20</v>
       </c>
       <c r="K355" s="3">
-        <f>J355*K354/J354</f>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="L355" s="3" t="s">
@@ -27494,7 +27494,7 @@
       <c r="X355" s="3"/>
       <c r="AC355" s="3"/>
     </row>
-    <row r="356" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A356" s="11">
         <v>144</v>
       </c>
@@ -27524,7 +27524,7 @@
         <v>10</v>
       </c>
       <c r="K356" s="3">
-        <f>J356*K355/J355</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="L356" s="3">
@@ -27566,7 +27566,7 @@
       <c r="X356" s="3"/>
       <c r="AC356" s="3"/>
     </row>
-    <row r="357" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A357" s="11">
         <v>415</v>
       </c>
@@ -27596,7 +27596,7 @@
         <v>10</v>
       </c>
       <c r="K357" s="3">
-        <f>J357*K356/J356</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="L357" s="3">
@@ -27638,7 +27638,7 @@
       <c r="X357" s="3"/>
       <c r="AC357" s="3"/>
     </row>
-    <row r="358" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A358" s="11">
         <v>161</v>
       </c>
@@ -27670,7 +27670,7 @@
         <v>10</v>
       </c>
       <c r="K358" s="3">
-        <f>J358*K357/J357</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="L358" s="3">
@@ -27712,7 +27712,7 @@
       <c r="X358" s="3"/>
       <c r="AC358" s="3"/>
     </row>
-    <row r="359" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A359" s="11">
         <v>242</v>
       </c>
@@ -27742,7 +27742,7 @@
         <v>15</v>
       </c>
       <c r="K359" s="3">
-        <f>J359*K358/J358</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="L359" s="3">
@@ -27784,7 +27784,7 @@
       <c r="X359" s="3"/>
       <c r="AC359" s="3"/>
     </row>
-    <row r="360" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A360" s="11">
         <v>87</v>
       </c>
@@ -27816,7 +27816,7 @@
         <v>10</v>
       </c>
       <c r="K360" s="3">
-        <f>J360*K359/J359</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="L360" s="3">
@@ -27858,7 +27858,7 @@
       <c r="X360" s="3"/>
       <c r="AC360" s="3"/>
     </row>
-    <row r="361" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A361" s="11">
         <v>317</v>
       </c>
@@ -27888,7 +27888,7 @@
         <v>15</v>
       </c>
       <c r="K361" s="3">
-        <f>J361*K360/J360</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="L361" s="3">
@@ -27930,7 +27930,7 @@
       <c r="X361" s="3"/>
       <c r="AC361" s="3"/>
     </row>
-    <row r="362" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A362" s="11">
         <v>469</v>
       </c>
@@ -27960,7 +27960,7 @@
         <v>10</v>
       </c>
       <c r="K362" s="3">
-        <f>J362*K361/J361</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="L362" s="3" t="s">
@@ -28002,7 +28002,7 @@
       <c r="X362" s="3"/>
       <c r="AC362" s="3"/>
     </row>
-    <row r="363" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A363" s="11">
         <v>219</v>
       </c>
@@ -28032,7 +28032,7 @@
         <v>25</v>
       </c>
       <c r="K363" s="3">
-        <f>J363*K362/J362</f>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="L363" s="3" t="s">
@@ -28074,7 +28074,7 @@
       <c r="X363" s="3"/>
       <c r="AC363" s="3"/>
     </row>
-    <row r="364" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>245</v>
       </c>
@@ -28104,7 +28104,7 @@
         <v>5</v>
       </c>
       <c r="K364" s="3">
-        <f>J364*K363/J363</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="L364" s="3">
@@ -28146,7 +28146,7 @@
       <c r="X364" s="3"/>
       <c r="AC364" s="3"/>
     </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A365" s="11">
         <v>542</v>
       </c>
@@ -28178,7 +28178,7 @@
         <v>10</v>
       </c>
       <c r="K365" s="3">
-        <f>J365*K364/J364</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="L365" s="3">
@@ -28220,7 +28220,7 @@
       <c r="X365" s="3"/>
       <c r="AC365" s="3"/>
     </row>
-    <row r="366" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A366" s="11">
         <v>279</v>
       </c>
@@ -28250,7 +28250,7 @@
         <v>10</v>
       </c>
       <c r="K366" s="3">
-        <f>J366*K365/J365</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="L366" s="3">
@@ -28292,7 +28292,7 @@
       <c r="X366" s="3"/>
       <c r="AC366" s="3"/>
     </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A367" s="11">
         <v>440</v>
       </c>
@@ -28324,7 +28324,7 @@
         <v>20</v>
       </c>
       <c r="K367" s="3">
-        <f>J367*K366/J366</f>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="L367" s="3">
@@ -28366,7 +28366,7 @@
       <c r="X367" s="3"/>
       <c r="AC367" s="3"/>
     </row>
-    <row r="368" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A368" s="11">
         <v>117</v>
       </c>
@@ -28396,7 +28396,7 @@
         <v>10</v>
       </c>
       <c r="K368" s="3">
-        <f>J368*K367/J367</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="L368" s="3" t="s">
@@ -28438,7 +28438,7 @@
       <c r="X368" s="3"/>
       <c r="AC368" s="3"/>
     </row>
-    <row r="369" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A369" s="11">
         <v>59</v>
       </c>
@@ -28470,7 +28470,7 @@
         <v>5</v>
       </c>
       <c r="K369" s="3">
-        <f>J369*K368/J368</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="L369" s="3" t="s">
@@ -28512,7 +28512,7 @@
       <c r="X369" s="3"/>
       <c r="AC369" s="3"/>
     </row>
-    <row r="370" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A370" s="11">
         <v>466</v>
       </c>
@@ -28542,7 +28542,7 @@
         <v>5</v>
       </c>
       <c r="K370" s="3">
-        <f>J370*K369/J369</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="L370" s="3">
@@ -28584,7 +28584,7 @@
       <c r="X370" s="3"/>
       <c r="AC370" s="3"/>
     </row>
-    <row r="371" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A371" s="11">
         <v>366</v>
       </c>
@@ -28614,7 +28614,7 @@
         <v>15</v>
       </c>
       <c r="K371" s="3">
-        <f>J371*K370/J370</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="L371" s="3" t="s">
@@ -28656,7 +28656,7 @@
       <c r="X371" s="3"/>
       <c r="AC371" s="3"/>
     </row>
-    <row r="372" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A372" s="11">
         <v>13</v>
       </c>
@@ -28686,7 +28686,7 @@
         <v>10</v>
       </c>
       <c r="K372" s="3">
-        <f>J372*K371/J371</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="L372" s="3" t="s">
@@ -28728,7 +28728,7 @@
       <c r="X372" s="3"/>
       <c r="AC372" s="3"/>
     </row>
-    <row r="373" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A373" s="11">
         <v>196</v>
       </c>
@@ -28758,7 +28758,7 @@
         <v>15</v>
       </c>
       <c r="K373" s="3">
-        <f>J373*K372/J372</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="L373" s="3" t="s">
@@ -28800,7 +28800,7 @@
       <c r="X373" s="3"/>
       <c r="AC373" s="3"/>
     </row>
-    <row r="374" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A374" s="11">
         <v>528</v>
       </c>
@@ -28830,7 +28830,7 @@
         <v>15</v>
       </c>
       <c r="K374" s="3">
-        <f>J374*K373/J373</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="L374" s="3">
@@ -28872,7 +28872,7 @@
       <c r="X374" s="3"/>
       <c r="AC374" s="3"/>
     </row>
-    <row r="375" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A375" s="11">
         <v>304</v>
       </c>
@@ -28902,7 +28902,7 @@
         <v>10</v>
       </c>
       <c r="K375" s="3">
-        <f>J375*K374/J374</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="L375" s="3" t="s">
@@ -28944,7 +28944,7 @@
       <c r="X375" s="3"/>
       <c r="AC375" s="3"/>
     </row>
-    <row r="376" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A376" s="11">
         <v>19</v>
       </c>
@@ -28974,7 +28974,7 @@
         <v>15</v>
       </c>
       <c r="K376" s="3">
-        <f>J376*K375/J375</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="L376" s="3">
